--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -11,12 +11,12 @@
     <sheet name="lexcauc" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$A$1:$AC$2003</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn__FilterDatabase" vbProcedure="false">lexcauc!$H$1:$J$2588</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$A$1:$J$2005</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn__FilterDatabase" vbProcedure="false">lexcauc!$H$1:$J$2590</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="parameters" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="parameters_1" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="parameters_2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$A$1:$J$2003</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$A$1:$AC$2005</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1830" authorId="0">
+    <comment ref="E1831" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1882" authorId="0">
+    <comment ref="E1884" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1890" authorId="0">
+    <comment ref="E1892" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4967" uniqueCount="2296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4971" uniqueCount="2297">
   <si>
     <t xml:space="preserve">lex.id</t>
   </si>
@@ -6672,6 +6672,9 @@
   </si>
   <si>
     <t xml:space="preserve">ПРОСИТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASK FOR</t>
   </si>
   <si>
     <t xml:space="preserve">ЗАПРЕЩАТЬ</t>
@@ -7608,7 +7611,6 @@
         <charset val="1"/>
         <family val="2"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -7683,20 +7685,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ2006"/>
+  <dimension ref="A1:AMJ2008"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="K113" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="K1888" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F132" activeCellId="0" sqref="F132"/>
+      <selection pane="bottomLeft" activeCell="F1905" activeCellId="0" sqref="F1905"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="5.65"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.15"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="5.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.84"/>
@@ -7706,10 +7708,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="17.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="17.06"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="14" style="3" width="11.33"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="25" min="17" style="3" width="11.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="26" style="3" width="11.33"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="14" style="3" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -38441,21 +38440,19 @@
     </row>
     <row r="1764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1764" s="1" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B1764" s="1"/>
       <c r="C1764" s="1" t="n">
-        <v>986</v>
-      </c>
-      <c r="E1764" s="2" t="s">
-        <v>2005</v>
-      </c>
-      <c r="F1764" s="1" t="s">
-        <v>2006</v>
+        <v>985</v>
       </c>
       <c r="G1764" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="H1764" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1764" s="10"/>
     </row>
     <row r="1765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1765" s="1" t="n">
@@ -38465,62 +38462,62 @@
       <c r="C1765" s="1" t="n">
         <v>986</v>
       </c>
+      <c r="E1765" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F1765" s="1" t="s">
+        <v>2006</v>
+      </c>
       <c r="G1765" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1765" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1766" s="1" t="n">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B1766" s="1"/>
       <c r="C1766" s="1" t="n">
-        <v>987</v>
-      </c>
-      <c r="E1766" s="2" t="s">
-        <v>2007</v>
-      </c>
-      <c r="F1766" s="1" t="s">
-        <v>2008</v>
-      </c>
-      <c r="K1766" s="10"/>
+        <v>986</v>
+      </c>
+      <c r="G1766" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1766" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1767" s="1" t="n">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B1767" s="1"/>
       <c r="C1767" s="1" t="n">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E1767" s="2" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F1767" s="1" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="K1767" s="10"/>
     </row>
     <row r="1768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1768" s="1" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B1768" s="1"/>
       <c r="C1768" s="1" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E1768" s="2" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F1768" s="1" t="s">
-        <v>2012</v>
-      </c>
-      <c r="G1768" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>2010</v>
+      </c>
+      <c r="K1768" s="10"/>
     </row>
     <row r="1769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1769" s="1" t="n">
@@ -38530,30 +38527,29 @@
       <c r="C1769" s="1" t="n">
         <v>989</v>
       </c>
+      <c r="E1769" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F1769" s="1" t="s">
+        <v>2012</v>
+      </c>
       <c r="G1769" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1769" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1769" s="10"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="1770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1770" s="1" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B1770" s="1"/>
       <c r="C1770" s="1" t="n">
-        <v>990</v>
-      </c>
-      <c r="E1770" s="2" t="s">
-        <v>2013</v>
-      </c>
-      <c r="F1770" s="1" t="s">
-        <v>2014</v>
+        <v>989</v>
       </c>
       <c r="G1770" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="H1770" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K1770" s="10"/>
     </row>
@@ -38565,142 +38561,142 @@
       <c r="C1771" s="1" t="n">
         <v>990</v>
       </c>
+      <c r="E1771" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F1771" s="1" t="s">
+        <v>2014</v>
+      </c>
       <c r="G1771" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1771" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K1771" s="10"/>
     </row>
     <row r="1772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1772" s="1" t="n">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B1772" s="1"/>
       <c r="C1772" s="1" t="n">
-        <v>991</v>
-      </c>
-      <c r="E1772" s="2" t="s">
-        <v>2015</v>
-      </c>
-      <c r="F1772" s="1" t="s">
-        <v>2016</v>
-      </c>
-      <c r="K1772" s="10"/>
+        <v>990</v>
+      </c>
+      <c r="G1772" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1772" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1773" s="1" t="n">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B1773" s="1"/>
       <c r="C1773" s="1" t="n">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E1773" s="2" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F1773" s="1" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="K1773" s="10"/>
     </row>
     <row r="1774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1774" s="1" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B1774" s="1"/>
       <c r="C1774" s="1" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E1774" s="2" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F1774" s="1" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="K1774" s="10"/>
     </row>
     <row r="1775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1775" s="1" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B1775" s="1"/>
       <c r="C1775" s="1" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E1775" s="2" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F1775" s="1" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="K1775" s="10"/>
     </row>
     <row r="1776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1776" s="1" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B1776" s="1"/>
       <c r="C1776" s="1" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E1776" s="2" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F1776" s="1" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="K1776" s="10"/>
     </row>
     <row r="1777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1777" s="1" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B1777" s="1"/>
       <c r="C1777" s="1" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E1777" s="2" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="F1777" s="1" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="K1777" s="10"/>
-      <c r="AB1777" s="9"/>
     </row>
     <row r="1778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1778" s="1" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B1778" s="1"/>
       <c r="C1778" s="1" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E1778" s="2" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="F1778" s="1" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="K1778" s="10"/>
+      <c r="AB1778" s="9"/>
     </row>
     <row r="1779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1779" s="1" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B1779" s="1"/>
       <c r="C1779" s="1" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E1779" s="2" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="F1779" s="1" t="s">
-        <v>2030</v>
-      </c>
-      <c r="G1779" s="1" t="s">
-        <v>117</v>
+        <v>2028</v>
       </c>
       <c r="K1779" s="10"/>
     </row>
@@ -38712,314 +38708,314 @@
       <c r="C1780" s="1" t="n">
         <v>998</v>
       </c>
+      <c r="E1780" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F1780" s="1" t="s">
+        <v>2030</v>
+      </c>
       <c r="G1780" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1780" s="1" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="K1780" s="10"/>
     </row>
     <row r="1781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1781" s="1" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B1781" s="1"/>
       <c r="C1781" s="1" t="n">
-        <v>999</v>
-      </c>
-      <c r="E1781" s="2" t="s">
-        <v>2031</v>
-      </c>
-      <c r="F1781" s="1" t="s">
-        <v>2032</v>
+        <v>998</v>
+      </c>
+      <c r="G1781" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1781" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K1781" s="10"/>
     </row>
     <row r="1782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1782" s="1" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B1782" s="1"/>
       <c r="C1782" s="1" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E1782" s="2" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="F1782" s="1" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="K1782" s="10"/>
     </row>
     <row r="1783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1783" s="1" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B1783" s="1"/>
       <c r="C1783" s="1" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E1783" s="2" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="F1783" s="1" t="s">
-        <v>2032</v>
-      </c>
-      <c r="K1783" s="0"/>
-      <c r="L1783" s="0"/>
-      <c r="M1783" s="0"/>
+        <v>2034</v>
+      </c>
+      <c r="K1783" s="10"/>
     </row>
     <row r="1784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1784" s="1" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B1784" s="1"/>
       <c r="C1784" s="1" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E1784" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="F1784" s="1" t="s">
-        <v>2037</v>
-      </c>
-      <c r="K1784" s="10"/>
+        <v>2032</v>
+      </c>
+      <c r="K1784" s="0"/>
+      <c r="L1784" s="0"/>
+      <c r="M1784" s="0"/>
     </row>
     <row r="1785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1785" s="1" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B1785" s="1"/>
       <c r="C1785" s="1" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E1785" s="2" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="F1785" s="1" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="K1785" s="10"/>
-      <c r="AB1785" s="9"/>
     </row>
     <row r="1786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1786" s="1" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B1786" s="1"/>
       <c r="C1786" s="1" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E1786" s="2" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="F1786" s="1" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="K1786" s="10"/>
+      <c r="AB1786" s="9"/>
     </row>
     <row r="1787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1787" s="1" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B1787" s="1"/>
       <c r="C1787" s="1" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E1787" s="2" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="F1787" s="1" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="K1787" s="10"/>
-      <c r="AB1787" s="9"/>
     </row>
     <row r="1788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1788" s="1" t="n">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B1788" s="1"/>
       <c r="C1788" s="1" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E1788" s="6" t="s">
-        <v>2044</v>
+        <v>1005</v>
+      </c>
+      <c r="E1788" s="2" t="s">
+        <v>2042</v>
       </c>
       <c r="F1788" s="1" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="K1788" s="10"/>
+      <c r="AB1788" s="9"/>
     </row>
     <row r="1789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1789" s="1" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B1789" s="1"/>
       <c r="C1789" s="1" t="n">
-        <v>1007</v>
-      </c>
-      <c r="E1789" s="2" t="s">
-        <v>2046</v>
+        <v>1006</v>
+      </c>
+      <c r="E1789" s="6" t="s">
+        <v>2044</v>
       </c>
       <c r="F1789" s="1" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="K1789" s="10"/>
-      <c r="AB1789" s="9"/>
     </row>
     <row r="1790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1790" s="1" t="n">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B1790" s="1"/>
       <c r="C1790" s="1" t="n">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E1790" s="2" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="F1790" s="1" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="K1790" s="10"/>
+      <c r="AB1790" s="9"/>
     </row>
     <row r="1791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1791" s="1" t="n">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B1791" s="1"/>
       <c r="C1791" s="1" t="n">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E1791" s="2" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="F1791" s="1" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="K1791" s="10"/>
-      <c r="AA1791" s="0"/>
     </row>
     <row r="1792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1792" s="1" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B1792" s="1"/>
       <c r="C1792" s="1" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E1792" s="2" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="F1792" s="1" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="K1792" s="10"/>
       <c r="AA1792" s="0"/>
     </row>
     <row r="1793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1793" s="1" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B1793" s="1"/>
       <c r="C1793" s="1" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E1793" s="2" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="F1793" s="1" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="K1793" s="10"/>
       <c r="AA1793" s="0"/>
     </row>
     <row r="1794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1794" s="1" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B1794" s="1"/>
       <c r="C1794" s="1" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E1794" s="2" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="F1794" s="1" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="K1794" s="10"/>
+      <c r="AA1794" s="0"/>
     </row>
     <row r="1795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1795" s="1" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B1795" s="1"/>
       <c r="C1795" s="1" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E1795" s="2" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="F1795" s="1" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="K1795" s="10"/>
-      <c r="AA1795" s="0"/>
     </row>
     <row r="1796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1796" s="1" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B1796" s="1"/>
       <c r="C1796" s="1" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E1796" s="2" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="F1796" s="1" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="K1796" s="10"/>
+      <c r="AA1796" s="0"/>
     </row>
     <row r="1797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1797" s="1" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1797" s="1"/>
       <c r="C1797" s="1" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E1797" s="2" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="F1797" s="1" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="K1797" s="10"/>
-      <c r="AA1797" s="0"/>
     </row>
     <row r="1798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1798" s="1" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B1798" s="1"/>
       <c r="C1798" s="1" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E1798" s="2" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="F1798" s="1" t="s">
-        <v>2065</v>
-      </c>
-      <c r="G1798" s="1" t="s">
-        <v>116</v>
+        <v>2063</v>
       </c>
       <c r="K1798" s="10"/>
+      <c r="AA1798" s="0"/>
     </row>
     <row r="1799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1799" s="1" t="n">
@@ -39029,32 +39025,31 @@
       <c r="C1799" s="1" t="n">
         <v>1016</v>
       </c>
+      <c r="E1799" s="2" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F1799" s="1" t="s">
+        <v>2065</v>
+      </c>
       <c r="G1799" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1799" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K1799" s="10"/>
     </row>
     <row r="1800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1800" s="1" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B1800" s="1"/>
       <c r="C1800" s="1" t="n">
-        <v>1017</v>
-      </c>
-      <c r="E1800" s="2" t="s">
-        <v>2066</v>
-      </c>
-      <c r="F1800" s="1" t="s">
-        <v>2067</v>
+        <v>1016</v>
       </c>
       <c r="G1800" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1800" s="10"/>
-      <c r="L1800" s="0"/>
+        <v>117</v>
+      </c>
+      <c r="H1800" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1801" s="1" t="n">
@@ -39064,34 +39059,33 @@
       <c r="C1801" s="1" t="n">
         <v>1017</v>
       </c>
+      <c r="E1801" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F1801" s="1" t="s">
+        <v>2067</v>
+      </c>
       <c r="G1801" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1801" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="K1801" s="10"/>
+      <c r="L1801" s="0"/>
     </row>
     <row r="1802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1802" s="1" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B1802" s="1"/>
       <c r="C1802" s="1" t="n">
-        <v>1018</v>
-      </c>
-      <c r="E1802" s="2" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F1802" s="1" t="s">
-        <v>2069</v>
+        <v>1017</v>
       </c>
       <c r="G1802" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1802" s="0"/>
-      <c r="M1802" s="0"/>
-      <c r="AB1802" s="9"/>
+        <v>117</v>
+      </c>
+      <c r="H1802" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1802" s="10"/>
     </row>
     <row r="1803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1803" s="1" t="n">
@@ -39101,34 +39095,36 @@
       <c r="C1803" s="1" t="n">
         <v>1018</v>
       </c>
+      <c r="E1803" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F1803" s="1" t="s">
+        <v>2069</v>
+      </c>
       <c r="G1803" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1803" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1803" s="10"/>
-      <c r="L1803" s="10"/>
-      <c r="M1803" s="10"/>
+        <v>116</v>
+      </c>
+      <c r="L1803" s="0"/>
+      <c r="M1803" s="0"/>
+      <c r="AB1803" s="9"/>
     </row>
     <row r="1804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1804" s="1" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B1804" s="1"/>
       <c r="C1804" s="1" t="n">
-        <v>1019</v>
-      </c>
-      <c r="E1804" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="F1804" s="1" t="s">
-        <v>2071</v>
+        <v>1018</v>
       </c>
       <c r="G1804" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="H1804" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K1804" s="10"/>
+      <c r="L1804" s="10"/>
+      <c r="M1804" s="10"/>
     </row>
     <row r="1805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1805" s="1" t="n">
@@ -39138,30 +39134,30 @@
       <c r="C1805" s="1" t="n">
         <v>1019</v>
       </c>
+      <c r="E1805" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F1805" s="1" t="s">
+        <v>2071</v>
+      </c>
       <c r="G1805" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1805" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="K1805" s="10"/>
     </row>
     <row r="1806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1806" s="1" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B1806" s="1"/>
       <c r="C1806" s="1" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E1806" s="2" t="s">
-        <v>2072</v>
-      </c>
-      <c r="F1806" s="1" t="s">
-        <v>1671</v>
+        <v>1019</v>
       </c>
       <c r="G1806" s="1" t="s">
         <v>117</v>
+      </c>
+      <c r="H1806" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K1806" s="10"/>
     </row>
@@ -39173,30 +39169,30 @@
       <c r="C1807" s="1" t="n">
         <v>1020</v>
       </c>
+      <c r="E1807" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F1807" s="1" t="s">
+        <v>1671</v>
+      </c>
       <c r="G1807" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1807" s="1" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="K1807" s="10"/>
     </row>
     <row r="1808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1808" s="1" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B1808" s="1"/>
       <c r="C1808" s="1" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E1808" s="2" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F1808" s="1" t="s">
-        <v>2074</v>
+        <v>1020</v>
       </c>
       <c r="G1808" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="H1808" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K1808" s="10"/>
     </row>
@@ -39208,30 +39204,30 @@
       <c r="C1809" s="1" t="n">
         <v>1021</v>
       </c>
+      <c r="E1809" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F1809" s="1" t="s">
+        <v>2074</v>
+      </c>
       <c r="G1809" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1809" s="1" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="K1809" s="10"/>
     </row>
     <row r="1810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1810" s="1" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1810" s="1"/>
       <c r="C1810" s="1" t="n">
-        <v>1022</v>
-      </c>
-      <c r="E1810" s="2" t="s">
-        <v>2075</v>
-      </c>
-      <c r="F1810" s="1" t="s">
-        <v>2076</v>
+        <v>1021</v>
       </c>
       <c r="G1810" s="1" t="s">
         <v>116</v>
+      </c>
+      <c r="H1810" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K1810" s="10"/>
     </row>
@@ -39243,31 +39239,31 @@
       <c r="C1811" s="1" t="n">
         <v>1022</v>
       </c>
+      <c r="E1811" s="2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F1811" s="1" t="s">
+        <v>2076</v>
+      </c>
       <c r="G1811" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1811" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K1811" s="10"/>
     </row>
     <row r="1812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1812" s="1" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B1812" s="1"/>
       <c r="C1812" s="1" t="n">
-        <v>1023</v>
-      </c>
-      <c r="E1812" s="2" t="s">
-        <v>2077</v>
-      </c>
-      <c r="F1812" s="1" t="s">
-        <v>2078</v>
+        <v>1022</v>
       </c>
       <c r="G1812" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1812" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="H1812" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1813" s="1" t="n">
@@ -39277,31 +39273,31 @@
       <c r="C1813" s="1" t="n">
         <v>1023</v>
       </c>
+      <c r="E1813" s="2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F1813" s="1" t="s">
+        <v>2078</v>
+      </c>
       <c r="G1813" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1813" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K1813" s="10"/>
     </row>
     <row r="1814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1814" s="1" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B1814" s="1"/>
       <c r="C1814" s="1" t="n">
-        <v>1024</v>
-      </c>
-      <c r="E1814" s="6" t="s">
-        <v>2079</v>
-      </c>
-      <c r="F1814" s="1" t="s">
-        <v>2080</v>
+        <v>1023</v>
       </c>
       <c r="G1814" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K1814" s="10"/>
+      <c r="H1814" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1815" s="1" t="n">
@@ -39311,32 +39307,32 @@
       <c r="C1815" s="1" t="n">
         <v>1024</v>
       </c>
-      <c r="E1815" s="6"/>
+      <c r="E1815" s="6" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F1815" s="1" t="s">
+        <v>2080</v>
+      </c>
       <c r="G1815" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1815" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="K1815" s="10"/>
     </row>
     <row r="1816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1816" s="1" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B1816" s="1"/>
       <c r="C1816" s="1" t="n">
-        <v>1025</v>
-      </c>
-      <c r="E1816" s="6" t="s">
-        <v>2081</v>
-      </c>
-      <c r="F1816" s="1" t="s">
-        <v>2082</v>
-      </c>
+        <v>1024</v>
+      </c>
+      <c r="E1816" s="6"/>
       <c r="G1816" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1816" s="10"/>
+        <v>116</v>
+      </c>
+      <c r="H1816" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1817" s="1" t="n">
@@ -39346,31 +39342,31 @@
       <c r="C1817" s="1" t="n">
         <v>1025</v>
       </c>
-      <c r="E1817" s="6"/>
+      <c r="E1817" s="6" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F1817" s="1" t="s">
+        <v>2082</v>
+      </c>
       <c r="G1817" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1817" s="1" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="K1817" s="10"/>
     </row>
     <row r="1818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1818" s="1" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B1818" s="1"/>
       <c r="C1818" s="1" t="n">
-        <v>1026</v>
-      </c>
-      <c r="E1818" s="2" t="s">
-        <v>2083</v>
-      </c>
-      <c r="F1818" s="1" t="s">
-        <v>2084</v>
-      </c>
+        <v>1025</v>
+      </c>
+      <c r="E1818" s="6"/>
       <c r="G1818" s="1" t="s">
         <v>116</v>
+      </c>
+      <c r="H1818" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K1818" s="10"/>
     </row>
@@ -39382,31 +39378,32 @@
       <c r="C1819" s="1" t="n">
         <v>1026</v>
       </c>
+      <c r="E1819" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F1819" s="1" t="s">
+        <v>2084</v>
+      </c>
       <c r="G1819" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1819" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="K1819" s="10"/>
     </row>
     <row r="1820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1820" s="1" t="n">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B1820" s="1"/>
       <c r="C1820" s="1" t="n">
-        <v>1027</v>
-      </c>
-      <c r="E1820" s="2" t="s">
-        <v>2085</v>
-      </c>
-      <c r="F1820" s="1" t="s">
-        <v>2086</v>
+        <v>1026</v>
       </c>
       <c r="G1820" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="H1820" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1820" s="10"/>
     </row>
     <row r="1821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1821" s="1" t="n">
@@ -39416,61 +39413,60 @@
       <c r="C1821" s="1" t="n">
         <v>1027</v>
       </c>
+      <c r="E1821" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F1821" s="1" t="s">
+        <v>2086</v>
+      </c>
       <c r="G1821" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1821" s="1" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1822" s="1" t="n">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B1822" s="1"/>
       <c r="C1822" s="1" t="n">
-        <v>1028</v>
-      </c>
-      <c r="E1822" s="2" t="s">
-        <v>2087</v>
-      </c>
-      <c r="F1822" s="1" t="s">
-        <v>2088</v>
-      </c>
-      <c r="K1822" s="10"/>
+        <v>1027</v>
+      </c>
+      <c r="G1822" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1822" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1823" s="1" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1823" s="1"/>
       <c r="C1823" s="1" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E1823" s="2" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="F1823" s="1" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="K1823" s="10"/>
     </row>
     <row r="1824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1824" s="1" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B1824" s="1"/>
       <c r="C1824" s="1" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E1824" s="2" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="F1824" s="1" t="s">
-        <v>2092</v>
-      </c>
-      <c r="G1824" s="1" t="s">
-        <v>116</v>
+        <v>2090</v>
       </c>
       <c r="K1824" s="10"/>
     </row>
@@ -39482,31 +39478,31 @@
       <c r="C1825" s="1" t="n">
         <v>1030</v>
       </c>
+      <c r="E1825" s="2" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F1825" s="1" t="s">
+        <v>2092</v>
+      </c>
       <c r="G1825" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1825" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K1825" s="10"/>
     </row>
     <row r="1826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1826" s="1" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B1826" s="1"/>
       <c r="C1826" s="1" t="n">
-        <v>1031</v>
-      </c>
-      <c r="E1826" s="2" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F1826" s="1" t="s">
-        <v>2094</v>
+        <v>1030</v>
       </c>
       <c r="G1826" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K1826" s="10"/>
+      <c r="H1826" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1827" s="1" t="n">
@@ -39516,30 +39512,30 @@
       <c r="C1827" s="1" t="n">
         <v>1031</v>
       </c>
+      <c r="E1827" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F1827" s="1" t="s">
+        <v>2094</v>
+      </c>
       <c r="G1827" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1827" s="1" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="K1827" s="10"/>
     </row>
     <row r="1828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1828" s="1" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B1828" s="1"/>
       <c r="C1828" s="1" t="n">
-        <v>1032</v>
-      </c>
-      <c r="E1828" s="2" t="s">
-        <v>2095</v>
-      </c>
-      <c r="F1828" s="1" t="s">
-        <v>2096</v>
+        <v>1031</v>
       </c>
       <c r="G1828" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="H1828" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K1828" s="10"/>
     </row>
@@ -39551,33 +39547,32 @@
       <c r="C1829" s="1" t="n">
         <v>1032</v>
       </c>
+      <c r="E1829" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F1829" s="1" t="s">
+        <v>2096</v>
+      </c>
       <c r="G1829" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1829" s="1" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="K1829" s="10"/>
     </row>
     <row r="1830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1830" s="1" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B1830" s="1"/>
       <c r="C1830" s="1" t="n">
-        <v>1033</v>
-      </c>
-      <c r="E1830" s="2" t="s">
-        <v>2097</v>
-      </c>
-      <c r="F1830" s="1" t="s">
-        <v>2098</v>
+        <v>1032</v>
       </c>
       <c r="G1830" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="H1830" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K1830" s="10"/>
-      <c r="AB1830" s="9"/>
     </row>
     <row r="1831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1831" s="1" t="n">
@@ -39587,62 +39582,63 @@
       <c r="C1831" s="1" t="n">
         <v>1033</v>
       </c>
+      <c r="E1831" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F1831" s="1" t="s">
+        <v>2098</v>
+      </c>
       <c r="G1831" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1831" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="K1831" s="10"/>
+      <c r="AB1831" s="9"/>
     </row>
     <row r="1832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1832" s="1" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B1832" s="1"/>
       <c r="C1832" s="1" t="n">
-        <v>1034</v>
-      </c>
-      <c r="E1832" s="2" t="s">
-        <v>2099</v>
-      </c>
-      <c r="F1832" s="1" t="s">
-        <v>2100</v>
-      </c>
-      <c r="K1832" s="10"/>
-      <c r="AB1832" s="9"/>
+        <v>1033</v>
+      </c>
+      <c r="G1832" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1832" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1833" s="1" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B1833" s="1"/>
       <c r="C1833" s="1" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E1833" s="2" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="F1833" s="1" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="K1833" s="10"/>
+      <c r="AB1833" s="9"/>
     </row>
     <row r="1834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1834" s="1" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B1834" s="1"/>
       <c r="C1834" s="1" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E1834" s="2" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F1834" s="1" t="s">
-        <v>2104</v>
-      </c>
-      <c r="G1834" s="1" t="s">
-        <v>117</v>
+        <v>2102</v>
       </c>
       <c r="K1834" s="10"/>
     </row>
@@ -39654,95 +39650,95 @@
       <c r="C1835" s="1" t="n">
         <v>1036</v>
       </c>
+      <c r="E1835" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F1835" s="1" t="s">
+        <v>2104</v>
+      </c>
       <c r="G1835" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1835" s="1" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="K1835" s="10"/>
     </row>
     <row r="1836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1836" s="1" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B1836" s="1"/>
       <c r="C1836" s="1" t="n">
-        <v>1037</v>
-      </c>
-      <c r="E1836" s="2" t="s">
-        <v>2105</v>
-      </c>
-      <c r="F1836" s="1" t="s">
-        <v>2106</v>
+        <v>1036</v>
+      </c>
+      <c r="G1836" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1836" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K1836" s="10"/>
     </row>
     <row r="1837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1837" s="1" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B1837" s="1"/>
       <c r="C1837" s="1" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E1837" s="2" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="F1837" s="1" t="s">
-        <v>2108</v>
-      </c>
-      <c r="K1837" s="8"/>
+        <v>2106</v>
+      </c>
+      <c r="K1837" s="10"/>
     </row>
     <row r="1838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1838" s="1" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1838" s="1"/>
       <c r="C1838" s="1" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E1838" s="2" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="F1838" s="1" t="s">
-        <v>2110</v>
-      </c>
-      <c r="K1838" s="10"/>
-      <c r="AB1838" s="9"/>
+        <v>2108</v>
+      </c>
+      <c r="K1838" s="8"/>
     </row>
     <row r="1839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1839" s="1" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B1839" s="1"/>
       <c r="C1839" s="1" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E1839" s="2" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="F1839" s="1" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="K1839" s="10"/>
+      <c r="AB1839" s="9"/>
     </row>
     <row r="1840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1840" s="1" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B1840" s="1"/>
       <c r="C1840" s="1" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E1840" s="2" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="F1840" s="1" t="s">
-        <v>2114</v>
-      </c>
-      <c r="G1840" s="1" t="s">
-        <v>116</v>
+        <v>2112</v>
       </c>
       <c r="K1840" s="10"/>
     </row>
@@ -39754,113 +39750,114 @@
       <c r="C1841" s="1" t="n">
         <v>1041</v>
       </c>
+      <c r="E1841" s="2" t="s">
+        <v>2113</v>
+      </c>
+      <c r="F1841" s="1" t="s">
+        <v>2114</v>
+      </c>
       <c r="G1841" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1841" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K1841" s="10"/>
     </row>
     <row r="1842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1842" s="1" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B1842" s="1"/>
       <c r="C1842" s="1" t="n">
-        <v>1042</v>
-      </c>
-      <c r="E1842" s="2" t="s">
-        <v>2115</v>
-      </c>
-      <c r="F1842" s="1" t="s">
-        <v>2116</v>
+        <v>1041</v>
       </c>
       <c r="G1842" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1842" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="H1842" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1843" s="1" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B1843" s="1"/>
       <c r="C1843" s="1" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E1843" s="2" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="F1843" s="1" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="G1843" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K1843" s="10"/>
     </row>
     <row r="1844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1844" s="1" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B1844" s="1"/>
       <c r="C1844" s="1" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G1844" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H1844" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K1844" s="10"/>
     </row>
     <row r="1845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1845" s="1" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B1845" s="1"/>
       <c r="C1845" s="1" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E1845" s="2" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="F1845" s="1" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="G1845" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="K1845" s="10"/>
     </row>
     <row r="1846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1846" s="1" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B1846" s="1"/>
       <c r="C1846" s="1" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G1846" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H1846" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1846" s="10"/>
     </row>
     <row r="1847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1847" s="1" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B1847" s="1"/>
       <c r="C1847" s="1" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E1847" s="2" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="F1847" s="1" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="G1847" s="1" t="s">
         <v>116</v>
@@ -39868,11 +39865,11 @@
     </row>
     <row r="1848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1848" s="1" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B1848" s="1"/>
       <c r="C1848" s="1" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G1848" s="1" t="s">
         <v>117</v>
@@ -39881,145 +39878,143 @@
         <v>7</v>
       </c>
       <c r="K1848" s="10"/>
-      <c r="L1848" s="0"/>
-      <c r="M1848" s="0"/>
     </row>
     <row r="1849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1849" s="1" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B1849" s="1"/>
       <c r="C1849" s="1" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E1849" s="2" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="F1849" s="1" t="s">
-        <v>2124</v>
-      </c>
-      <c r="K1849" s="10"/>
-      <c r="L1849" s="0"/>
-      <c r="M1849" s="0"/>
+        <v>2122</v>
+      </c>
+      <c r="G1849" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="1850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1850" s="1" t="n">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B1850" s="1"/>
       <c r="C1850" s="1" t="n">
-        <v>1047</v>
-      </c>
-      <c r="E1850" s="2" t="s">
-        <v>2125</v>
-      </c>
-      <c r="F1850" s="1" t="s">
-        <v>2126</v>
+        <v>1045</v>
+      </c>
+      <c r="G1850" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1850" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K1850" s="10"/>
+      <c r="L1850" s="0"/>
+      <c r="M1850" s="0"/>
     </row>
     <row r="1851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1851" s="1" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B1851" s="1"/>
       <c r="C1851" s="1" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E1851" s="2" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
       <c r="F1851" s="1" t="s">
-        <v>2128</v>
-      </c>
-      <c r="G1851" s="1" t="s">
-        <v>117</v>
+        <v>2124</v>
       </c>
       <c r="K1851" s="10"/>
-      <c r="AB1851" s="9"/>
+      <c r="L1851" s="0"/>
+      <c r="M1851" s="0"/>
     </row>
     <row r="1852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1852" s="1" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1852" s="1"/>
       <c r="C1852" s="1" t="n">
-        <v>1048</v>
-      </c>
-      <c r="G1852" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1852" s="1" t="s">
-        <v>7</v>
+        <v>1047</v>
+      </c>
+      <c r="E1852" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F1852" s="1" t="s">
+        <v>2126</v>
       </c>
       <c r="K1852" s="10"/>
     </row>
     <row r="1853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1853" s="1" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B1853" s="1"/>
       <c r="C1853" s="1" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E1853" s="2" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="F1853" s="1" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="G1853" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K1853" s="10"/>
       <c r="AB1853" s="9"/>
     </row>
     <row r="1854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1854" s="1" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B1854" s="1"/>
       <c r="C1854" s="1" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G1854" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H1854" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K1854" s="10"/>
     </row>
     <row r="1855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1855" s="1" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B1855" s="1"/>
       <c r="C1855" s="1" t="n">
-        <v>1050</v>
-      </c>
-      <c r="E1855" s="6" t="s">
-        <v>2131</v>
+        <v>1049</v>
+      </c>
+      <c r="E1855" s="2" t="s">
+        <v>2129</v>
       </c>
       <c r="F1855" s="1" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="G1855" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K1855" s="10"/>
       <c r="AB1855" s="9"/>
     </row>
     <row r="1856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1856" s="1" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B1856" s="1"/>
       <c r="C1856" s="1" t="n">
-        <v>1050</v>
-      </c>
-      <c r="E1856" s="6"/>
+        <v>1049</v>
+      </c>
       <c r="G1856" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H1856" s="1" t="s">
         <v>7</v>
@@ -40027,30 +40022,31 @@
     </row>
     <row r="1857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1857" s="1" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B1857" s="1"/>
       <c r="C1857" s="1" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E1857" s="6" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="F1857" s="1" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="G1857" s="1" t="s">
         <v>117</v>
       </c>
       <c r="K1857" s="10"/>
+      <c r="AB1857" s="9"/>
     </row>
     <row r="1858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1858" s="1" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B1858" s="1"/>
       <c r="C1858" s="1" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E1858" s="6"/>
       <c r="G1858" s="1" t="s">
@@ -40062,302 +40058,302 @@
     </row>
     <row r="1859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1859" s="1" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B1859" s="1"/>
       <c r="C1859" s="1" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E1859" s="6" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="F1859" s="1" t="s">
-        <v>2136</v>
+        <v>2134</v>
+      </c>
+      <c r="G1859" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="K1859" s="10"/>
     </row>
     <row r="1860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1860" s="1" t="n">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B1860" s="1"/>
       <c r="C1860" s="1" t="n">
-        <v>1053</v>
-      </c>
-      <c r="E1860" s="6" t="s">
-        <v>2137</v>
-      </c>
-      <c r="F1860" s="1" t="s">
-        <v>2138</v>
-      </c>
-      <c r="K1860" s="8"/>
+        <v>1051</v>
+      </c>
+      <c r="E1860" s="6"/>
+      <c r="G1860" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1860" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1861" s="1" t="n">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B1861" s="1"/>
       <c r="C1861" s="1" t="n">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E1861" s="6" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="F1861" s="1" t="s">
-        <v>2140</v>
-      </c>
+        <v>2136</v>
+      </c>
+      <c r="K1861" s="10"/>
     </row>
     <row r="1862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1862" s="1" t="n">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B1862" s="1"/>
       <c r="C1862" s="1" t="n">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E1862" s="6" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="F1862" s="1" t="s">
-        <v>2142</v>
-      </c>
+        <v>2138</v>
+      </c>
+      <c r="K1862" s="8"/>
     </row>
     <row r="1863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1863" s="1" t="n">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B1863" s="1"/>
       <c r="C1863" s="1" t="n">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E1863" s="6" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="F1863" s="1" t="s">
-        <v>2144</v>
-      </c>
-      <c r="K1863" s="10"/>
+        <v>2140</v>
+      </c>
     </row>
     <row r="1864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1864" s="1" t="n">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B1864" s="1"/>
       <c r="C1864" s="1" t="n">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E1864" s="6" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="F1864" s="1" t="s">
-        <v>2146</v>
-      </c>
-      <c r="K1864" s="10"/>
+        <v>2142</v>
+      </c>
     </row>
     <row r="1865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1865" s="1" t="n">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B1865" s="1"/>
       <c r="C1865" s="1" t="n">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E1865" s="6" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
       <c r="F1865" s="1" t="s">
-        <v>2148</v>
-      </c>
+        <v>2144</v>
+      </c>
+      <c r="K1865" s="10"/>
     </row>
     <row r="1866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1866" s="1" t="n">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B1866" s="1"/>
       <c r="C1866" s="1" t="n">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E1866" s="6" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="F1866" s="1" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
       <c r="K1866" s="10"/>
     </row>
     <row r="1867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1867" s="1" t="n">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B1867" s="1"/>
       <c r="C1867" s="1" t="n">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E1867" s="6" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="F1867" s="1" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1868" s="1" t="n">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B1868" s="1"/>
       <c r="C1868" s="1" t="n">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E1868" s="6" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="F1868" s="1" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="K1868" s="10"/>
     </row>
     <row r="1869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1869" s="1" t="n">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B1869" s="1"/>
       <c r="C1869" s="1" t="n">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E1869" s="6" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="F1869" s="1" t="s">
-        <v>2156</v>
-      </c>
-      <c r="K1869" s="10"/>
+        <v>2152</v>
+      </c>
     </row>
     <row r="1870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1870" s="1" t="n">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B1870" s="1"/>
       <c r="C1870" s="1" t="n">
-        <v>1063</v>
-      </c>
-      <c r="E1870" s="2" t="s">
-        <v>2157</v>
+        <v>1061</v>
+      </c>
+      <c r="E1870" s="6" t="s">
+        <v>2153</v>
       </c>
       <c r="F1870" s="1" t="s">
-        <v>2158</v>
-      </c>
+        <v>2154</v>
+      </c>
+      <c r="K1870" s="10"/>
     </row>
     <row r="1871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1871" s="1" t="n">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B1871" s="1"/>
       <c r="C1871" s="1" t="n">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E1871" s="6" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="F1871" s="1" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="K1871" s="10"/>
     </row>
     <row r="1872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1872" s="1" t="n">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B1872" s="1"/>
       <c r="C1872" s="1" t="n">
-        <v>1065</v>
-      </c>
-      <c r="E1872" s="6" t="s">
-        <v>2161</v>
+        <v>1063</v>
+      </c>
+      <c r="E1872" s="2" t="s">
+        <v>2157</v>
       </c>
       <c r="F1872" s="1" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1873" s="1" t="n">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B1873" s="1"/>
       <c r="C1873" s="1" t="n">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E1873" s="6" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="F1873" s="1" t="s">
-        <v>2164</v>
-      </c>
+        <v>2160</v>
+      </c>
+      <c r="K1873" s="10"/>
     </row>
     <row r="1874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1874" s="1" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B1874" s="1"/>
       <c r="C1874" s="1" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E1874" s="6" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="F1874" s="1" t="s">
-        <v>2166</v>
-      </c>
-      <c r="G1874" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1874" s="10"/>
+        <v>2162</v>
+      </c>
     </row>
     <row r="1875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1875" s="1" t="n">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B1875" s="1"/>
       <c r="C1875" s="1" t="n">
-        <v>1067</v>
-      </c>
-      <c r="E1875" s="6"/>
-      <c r="G1875" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1875" s="1" t="s">
-        <v>7</v>
+        <v>1066</v>
+      </c>
+      <c r="E1875" s="6" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F1875" s="1" t="s">
+        <v>2164</v>
       </c>
     </row>
     <row r="1876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1876" s="1" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1876" s="1"/>
       <c r="C1876" s="1" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E1876" s="6" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="F1876" s="1" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="G1876" s="1" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="K1876" s="10"/>
     </row>
     <row r="1877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1877" s="1" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1877" s="1"/>
       <c r="C1877" s="1" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E1877" s="6"/>
       <c r="G1877" s="1" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="H1877" s="1" t="s">
         <v>7</v>
@@ -40365,34 +40361,34 @@
     </row>
     <row r="1878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1878" s="1" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1878" s="1"/>
       <c r="C1878" s="1" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E1878" s="6" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="F1878" s="1" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="G1878" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="K1878" s="10"/>
     </row>
     <row r="1879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1879" s="1" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1879" s="1"/>
       <c r="C1879" s="1" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E1879" s="6"/>
       <c r="G1879" s="1" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="H1879" s="1" t="s">
         <v>7</v>
@@ -40400,17 +40396,17 @@
     </row>
     <row r="1880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1880" s="1" t="n">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B1880" s="1"/>
       <c r="C1880" s="1" t="n">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E1880" s="6" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="F1880" s="1" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="G1880" s="1" t="s">
         <v>116</v>
@@ -40419,11 +40415,11 @@
     </row>
     <row r="1881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1881" s="1" t="n">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B1881" s="1"/>
       <c r="C1881" s="1" t="n">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E1881" s="6"/>
       <c r="G1881" s="1" t="s">
@@ -40435,17 +40431,17 @@
     </row>
     <row r="1882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1882" s="1" t="n">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B1882" s="1"/>
       <c r="C1882" s="1" t="n">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E1882" s="6" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="F1882" s="1" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="G1882" s="1" t="s">
         <v>116</v>
@@ -40454,11 +40450,11 @@
     </row>
     <row r="1883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1883" s="1" t="n">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B1883" s="1"/>
       <c r="C1883" s="1" t="n">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E1883" s="6"/>
       <c r="G1883" s="1" t="s">
@@ -40470,17 +40466,17 @@
     </row>
     <row r="1884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1884" s="1" t="n">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B1884" s="1"/>
       <c r="C1884" s="1" t="n">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E1884" s="6" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="F1884" s="1" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="G1884" s="1" t="s">
         <v>116</v>
@@ -40489,11 +40485,11 @@
     </row>
     <row r="1885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1885" s="1" t="n">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B1885" s="1"/>
       <c r="C1885" s="1" t="n">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E1885" s="6"/>
       <c r="G1885" s="1" t="s">
@@ -40505,34 +40501,34 @@
     </row>
     <row r="1886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1886" s="1" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B1886" s="1"/>
       <c r="C1886" s="1" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E1886" s="6" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="F1886" s="1" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="G1886" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K1886" s="10"/>
     </row>
     <row r="1887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1887" s="1" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B1887" s="1"/>
       <c r="C1887" s="1" t="n">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E1887" s="6"/>
       <c r="G1887" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H1887" s="1" t="s">
         <v>7</v>
@@ -40540,34 +40536,34 @@
     </row>
     <row r="1888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1888" s="1" t="n">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B1888" s="1"/>
       <c r="C1888" s="1" t="n">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E1888" s="6" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="F1888" s="1" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="G1888" s="1" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K1888" s="10"/>
     </row>
     <row r="1889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1889" s="1" t="n">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B1889" s="1"/>
       <c r="C1889" s="1" t="n">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E1889" s="6"/>
       <c r="G1889" s="1" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="H1889" s="1" t="s">
         <v>7</v>
@@ -40575,17 +40571,17 @@
     </row>
     <row r="1890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1890" s="1" t="n">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B1890" s="1"/>
       <c r="C1890" s="1" t="n">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E1890" s="6" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="F1890" s="1" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="G1890" s="1" t="s">
         <v>42</v>
@@ -40594,11 +40590,11 @@
     </row>
     <row r="1891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1891" s="1" t="n">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B1891" s="1"/>
       <c r="C1891" s="1" t="n">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E1891" s="6"/>
       <c r="G1891" s="1" t="s">
@@ -40610,17 +40606,17 @@
     </row>
     <row r="1892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1892" s="1" t="n">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1892" s="1"/>
       <c r="C1892" s="1" t="n">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E1892" s="6" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="F1892" s="1" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="G1892" s="1" t="s">
         <v>42</v>
@@ -40629,11 +40625,11 @@
     </row>
     <row r="1893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1893" s="1" t="n">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1893" s="1"/>
       <c r="C1893" s="1" t="n">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E1893" s="6"/>
       <c r="G1893" s="1" t="s">
@@ -40645,17 +40641,17 @@
     </row>
     <row r="1894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1894" s="1" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B1894" s="1"/>
       <c r="C1894" s="1" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E1894" s="6" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="F1894" s="1" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="G1894" s="1" t="s">
         <v>42</v>
@@ -40664,11 +40660,11 @@
     </row>
     <row r="1895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1895" s="1" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B1895" s="1"/>
       <c r="C1895" s="1" t="n">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E1895" s="6"/>
       <c r="G1895" s="1" t="s">
@@ -40680,17 +40676,17 @@
     </row>
     <row r="1896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1896" s="1" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B1896" s="1"/>
       <c r="C1896" s="1" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E1896" s="6" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="F1896" s="1" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="G1896" s="1" t="s">
         <v>42</v>
@@ -40699,11 +40695,11 @@
     </row>
     <row r="1897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1897" s="1" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B1897" s="1"/>
       <c r="C1897" s="1" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E1897" s="6"/>
       <c r="G1897" s="1" t="s">
@@ -40715,35 +40711,34 @@
     </row>
     <row r="1898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1898" s="1" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B1898" s="1"/>
       <c r="C1898" s="1" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E1898" s="6" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="F1898" s="1" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="G1898" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="K1898" s="10"/>
-      <c r="AB1898" s="9"/>
     </row>
     <row r="1899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1899" s="1" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B1899" s="1"/>
       <c r="C1899" s="1" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E1899" s="6"/>
       <c r="G1899" s="1" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="H1899" s="1" t="s">
         <v>7</v>
@@ -40751,30 +40746,31 @@
     </row>
     <row r="1900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1900" s="1" t="n">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B1900" s="1"/>
       <c r="C1900" s="1" t="n">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E1900" s="6" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="F1900" s="1" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="G1900" s="1" t="s">
         <v>117</v>
       </c>
       <c r="K1900" s="10"/>
+      <c r="AB1900" s="9"/>
     </row>
     <row r="1901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1901" s="1" t="n">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B1901" s="1"/>
       <c r="C1901" s="1" t="n">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E1901" s="6"/>
       <c r="G1901" s="1" t="s">
@@ -40783,33 +40779,33 @@
       <c r="H1901" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1901" s="10"/>
     </row>
     <row r="1902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1902" s="1" t="n">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B1902" s="1"/>
       <c r="C1902" s="1" t="n">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E1902" s="6" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="F1902" s="1" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="G1902" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="K1902" s="10"/>
     </row>
     <row r="1903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1903" s="1" t="n">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B1903" s="1"/>
       <c r="C1903" s="1" t="n">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E1903" s="6"/>
       <c r="G1903" s="1" t="s">
@@ -40819,34 +40815,32 @@
         <v>7</v>
       </c>
       <c r="K1903" s="10"/>
-      <c r="AB1903" s="9"/>
     </row>
     <row r="1904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1904" s="1" t="n">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B1904" s="1"/>
       <c r="C1904" s="1" t="n">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E1904" s="6" t="s">
+        <v>2193</v>
+      </c>
+      <c r="F1904" s="1" t="s">
         <v>2194</v>
-      </c>
-      <c r="F1904" s="1" t="s">
-        <v>2195</v>
       </c>
       <c r="G1904" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K1904" s="10"/>
     </row>
     <row r="1905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1905" s="1" t="n">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B1905" s="1"/>
       <c r="C1905" s="1" t="n">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E1905" s="6"/>
       <c r="G1905" s="1" t="s">
@@ -40856,38 +40850,38 @@
         <v>7</v>
       </c>
       <c r="K1905" s="10"/>
+      <c r="AB1905" s="9"/>
     </row>
     <row r="1906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1906" s="1" t="n">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B1906" s="1"/>
       <c r="C1906" s="1" t="n">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E1906" s="6" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F1906" s="1" t="s">
         <v>2196</v>
       </c>
-      <c r="F1906" s="1" t="s">
-        <v>2197</v>
-      </c>
       <c r="G1906" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K1906" s="10"/>
-      <c r="AB1906" s="9"/>
     </row>
     <row r="1907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1907" s="1" t="n">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B1907" s="1"/>
       <c r="C1907" s="1" t="n">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E1907" s="6"/>
       <c r="G1907" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H1907" s="1" t="s">
         <v>7</v>
@@ -40896,35 +40890,35 @@
     </row>
     <row r="1908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1908" s="1" t="n">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B1908" s="1"/>
       <c r="C1908" s="1" t="n">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E1908" s="6" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F1908" s="1" t="s">
         <v>2198</v>
       </c>
-      <c r="F1908" s="1" t="s">
-        <v>2199</v>
-      </c>
       <c r="G1908" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K1908" s="10"/>
       <c r="AB1908" s="9"/>
     </row>
     <row r="1909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1909" s="1" t="n">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B1909" s="1"/>
       <c r="C1909" s="1" t="n">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E1909" s="6"/>
       <c r="G1909" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H1909" s="1" t="s">
         <v>7</v>
@@ -40933,30 +40927,31 @@
     </row>
     <row r="1910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1910" s="1" t="n">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B1910" s="1"/>
       <c r="C1910" s="1" t="n">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E1910" s="6" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F1910" s="1" t="s">
         <v>2200</v>
-      </c>
-      <c r="F1910" s="1" t="s">
-        <v>2201</v>
       </c>
       <c r="G1910" s="1" t="s">
         <v>117</v>
       </c>
       <c r="K1910" s="10"/>
+      <c r="AB1910" s="9"/>
     </row>
     <row r="1911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1911" s="1" t="n">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B1911" s="1"/>
       <c r="C1911" s="1" t="n">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E1911" s="6"/>
       <c r="G1911" s="1" t="s">
@@ -40965,20 +40960,21 @@
       <c r="H1911" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K1911" s="10"/>
     </row>
     <row r="1912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1912" s="1" t="n">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1912" s="1"/>
       <c r="C1912" s="1" t="n">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E1912" s="6" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F1912" s="1" t="s">
         <v>2202</v>
-      </c>
-      <c r="F1912" s="1" t="s">
-        <v>2203</v>
       </c>
       <c r="G1912" s="1" t="s">
         <v>117</v>
@@ -40987,11 +40983,11 @@
     </row>
     <row r="1913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1913" s="1" t="n">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1913" s="1"/>
       <c r="C1913" s="1" t="n">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E1913" s="6"/>
       <c r="G1913" s="1" t="s">
@@ -41003,34 +40999,34 @@
     </row>
     <row r="1914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1914" s="1" t="n">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B1914" s="1"/>
       <c r="C1914" s="1" t="n">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E1914" s="6" t="s">
+        <v>2203</v>
+      </c>
+      <c r="F1914" s="1" t="s">
         <v>2204</v>
       </c>
-      <c r="F1914" s="1" t="s">
-        <v>2205</v>
-      </c>
       <c r="G1914" s="1" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K1914" s="10"/>
     </row>
     <row r="1915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1915" s="1" t="n">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B1915" s="1"/>
       <c r="C1915" s="1" t="n">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E1915" s="6"/>
       <c r="G1915" s="1" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="H1915" s="1" t="s">
         <v>7</v>
@@ -41038,17 +41034,17 @@
     </row>
     <row r="1916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1916" s="1" t="n">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B1916" s="1"/>
       <c r="C1916" s="1" t="n">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E1916" s="6" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F1916" s="1" t="s">
         <v>2206</v>
-      </c>
-      <c r="F1916" s="1" t="s">
-        <v>2207</v>
       </c>
       <c r="G1916" s="1" t="s">
         <v>42</v>
@@ -41057,11 +41053,11 @@
     </row>
     <row r="1917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1917" s="1" t="n">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B1917" s="1"/>
       <c r="C1917" s="1" t="n">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E1917" s="6"/>
       <c r="G1917" s="1" t="s">
@@ -41073,17 +41069,17 @@
     </row>
     <row r="1918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1918" s="1" t="n">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B1918" s="1"/>
       <c r="C1918" s="1" t="n">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E1918" s="6" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F1918" s="1" t="s">
         <v>2208</v>
-      </c>
-      <c r="F1918" s="1" t="s">
-        <v>2209</v>
       </c>
       <c r="G1918" s="1" t="s">
         <v>42</v>
@@ -41092,11 +41088,11 @@
     </row>
     <row r="1919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1919" s="1" t="n">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B1919" s="1"/>
       <c r="C1919" s="1" t="n">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E1919" s="6"/>
       <c r="G1919" s="1" t="s">
@@ -41108,17 +41104,17 @@
     </row>
     <row r="1920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1920" s="1" t="n">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B1920" s="1"/>
       <c r="C1920" s="1" t="n">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1920" s="6" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F1920" s="1" t="s">
         <v>2210</v>
-      </c>
-      <c r="F1920" s="1" t="s">
-        <v>2211</v>
       </c>
       <c r="G1920" s="1" t="s">
         <v>42</v>
@@ -41127,11 +41123,11 @@
     </row>
     <row r="1921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1921" s="1" t="n">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B1921" s="1"/>
       <c r="C1921" s="1" t="n">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E1921" s="6"/>
       <c r="G1921" s="1" t="s">
@@ -41149,44 +41145,44 @@
       <c r="C1922" s="1" t="n">
         <v>1090</v>
       </c>
-      <c r="E1922" s="6"/>
+      <c r="E1922" s="6" t="s">
+        <v>2211</v>
+      </c>
+      <c r="F1922" s="1" t="s">
+        <v>2212</v>
+      </c>
       <c r="G1922" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1922" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="K1922" s="10"/>
     </row>
     <row r="1923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1923" s="1" t="n">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B1923" s="1"/>
       <c r="C1923" s="1" t="n">
-        <v>1091</v>
-      </c>
-      <c r="E1923" s="6" t="s">
-        <v>2212</v>
-      </c>
-      <c r="F1923" s="1" t="s">
-        <v>2213</v>
-      </c>
+        <v>1090</v>
+      </c>
+      <c r="E1923" s="6"/>
       <c r="G1923" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1923" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="H1923" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1924" s="1" t="n">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B1924" s="1"/>
       <c r="C1924" s="1" t="n">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E1924" s="6"/>
       <c r="G1924" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H1924" s="1" t="s">
         <v>7</v>
@@ -41200,44 +41196,44 @@
       <c r="C1925" s="1" t="n">
         <v>1091</v>
       </c>
-      <c r="E1925" s="6"/>
+      <c r="E1925" s="6" t="s">
+        <v>2213</v>
+      </c>
+      <c r="F1925" s="1" t="s">
+        <v>2214</v>
+      </c>
       <c r="G1925" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1925" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="K1925" s="10"/>
     </row>
     <row r="1926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1926" s="1" t="n">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B1926" s="1"/>
       <c r="C1926" s="1" t="n">
-        <v>1092</v>
-      </c>
-      <c r="E1926" s="6" t="s">
-        <v>2214</v>
-      </c>
-      <c r="F1926" s="1" t="s">
-        <v>2215</v>
-      </c>
+        <v>1091</v>
+      </c>
+      <c r="E1926" s="6"/>
       <c r="G1926" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1926" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="H1926" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1927" s="1" t="n">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B1927" s="1"/>
       <c r="C1927" s="1" t="n">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E1927" s="6"/>
       <c r="G1927" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H1927" s="1" t="s">
         <v>7</v>
@@ -41245,17 +41241,17 @@
     </row>
     <row r="1928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1928" s="1" t="n">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B1928" s="1"/>
       <c r="C1928" s="1" t="n">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E1928" s="6" t="s">
+        <v>2215</v>
+      </c>
+      <c r="F1928" s="1" t="s">
         <v>2216</v>
-      </c>
-      <c r="F1928" s="1" t="s">
-        <v>2217</v>
       </c>
       <c r="G1928" s="1" t="s">
         <v>42</v>
@@ -41264,11 +41260,11 @@
     </row>
     <row r="1929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1929" s="1" t="n">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B1929" s="1"/>
       <c r="C1929" s="1" t="n">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E1929" s="6"/>
       <c r="G1929" s="1" t="s">
@@ -41280,17 +41276,17 @@
     </row>
     <row r="1930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1930" s="1" t="n">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B1930" s="1"/>
       <c r="C1930" s="1" t="n">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E1930" s="6" t="s">
+        <v>2217</v>
+      </c>
+      <c r="F1930" s="1" t="s">
         <v>2218</v>
-      </c>
-      <c r="F1930" s="1" t="s">
-        <v>2219</v>
       </c>
       <c r="G1930" s="1" t="s">
         <v>42</v>
@@ -41299,11 +41295,11 @@
     </row>
     <row r="1931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1931" s="1" t="n">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B1931" s="1"/>
       <c r="C1931" s="1" t="n">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E1931" s="6"/>
       <c r="G1931" s="1" t="s">
@@ -41315,31 +41311,30 @@
     </row>
     <row r="1932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1932" s="1" t="n">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1932" s="1"/>
       <c r="C1932" s="1" t="n">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E1932" s="6" t="s">
+        <v>2219</v>
+      </c>
+      <c r="F1932" s="1" t="s">
         <v>2220</v>
       </c>
-      <c r="F1932" s="1" t="s">
-        <v>2221</v>
-      </c>
       <c r="G1932" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K1932" s="10"/>
-      <c r="AB1932" s="9"/>
     </row>
     <row r="1933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1933" s="1" t="n">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1933" s="1"/>
       <c r="C1933" s="1" t="n">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E1933" s="6"/>
       <c r="G1933" s="1" t="s">
@@ -41351,30 +41346,31 @@
     </row>
     <row r="1934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1934" s="1" t="n">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B1934" s="1"/>
       <c r="C1934" s="1" t="n">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E1934" s="6" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F1934" s="1" t="s">
         <v>2222</v>
       </c>
-      <c r="F1934" s="1" t="s">
-        <v>2223</v>
-      </c>
       <c r="G1934" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K1934" s="10"/>
+      <c r="AB1934" s="9"/>
     </row>
     <row r="1935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1935" s="1" t="n">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B1935" s="1"/>
       <c r="C1935" s="1" t="n">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E1935" s="6"/>
       <c r="G1935" s="1" t="s">
@@ -41386,17 +41382,17 @@
     </row>
     <row r="1936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1936" s="1" t="n">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B1936" s="1"/>
       <c r="C1936" s="1" t="n">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E1936" s="6" t="s">
+        <v>2223</v>
+      </c>
+      <c r="F1936" s="1" t="s">
         <v>2224</v>
-      </c>
-      <c r="F1936" s="1" t="s">
-        <v>2225</v>
       </c>
       <c r="G1936" s="1" t="s">
         <v>42</v>
@@ -41405,11 +41401,11 @@
     </row>
     <row r="1937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1937" s="1" t="n">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B1937" s="1"/>
       <c r="C1937" s="1" t="n">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E1937" s="6"/>
       <c r="G1937" s="1" t="s">
@@ -41421,17 +41417,17 @@
     </row>
     <row r="1938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1938" s="1" t="n">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B1938" s="1"/>
       <c r="C1938" s="1" t="n">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E1938" s="6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="F1938" s="1" t="s">
         <v>2226</v>
-      </c>
-      <c r="F1938" s="1" t="s">
-        <v>2227</v>
       </c>
       <c r="G1938" s="1" t="s">
         <v>42</v>
@@ -41440,11 +41436,11 @@
     </row>
     <row r="1939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1939" s="1" t="n">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B1939" s="1"/>
       <c r="C1939" s="1" t="n">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E1939" s="6"/>
       <c r="G1939" s="1" t="s">
@@ -41456,71 +41452,69 @@
     </row>
     <row r="1940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1940" s="1" t="n">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B1940" s="1"/>
       <c r="C1940" s="1" t="n">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E1940" s="6" t="s">
+        <v>2227</v>
+      </c>
+      <c r="F1940" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="F1940" s="1" t="s">
-        <v>2229</v>
-      </c>
       <c r="G1940" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="K1940" s="10"/>
     </row>
     <row r="1941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1941" s="1" t="n">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B1941" s="1"/>
       <c r="C1941" s="1" t="n">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E1941" s="6"/>
       <c r="G1941" s="1" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="H1941" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1941" s="10"/>
     </row>
     <row r="1942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1942" s="1" t="n">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B1942" s="1"/>
       <c r="C1942" s="1" t="n">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E1942" s="6" t="s">
+        <v>2229</v>
+      </c>
+      <c r="F1942" s="1" t="s">
         <v>2230</v>
       </c>
-      <c r="F1942" s="1" t="s">
-        <v>2231</v>
-      </c>
       <c r="G1942" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K1942" s="10"/>
-      <c r="AB1942" s="9"/>
     </row>
     <row r="1943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1943" s="1" t="n">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B1943" s="1"/>
       <c r="C1943" s="1" t="n">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E1943" s="6"/>
       <c r="G1943" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H1943" s="1" t="s">
         <v>7</v>
@@ -41529,68 +41523,67 @@
     </row>
     <row r="1944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1944" s="1" t="n">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B1944" s="1"/>
       <c r="C1944" s="1" t="n">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E1944" s="6" t="s">
+        <v>2231</v>
+      </c>
+      <c r="F1944" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="F1944" s="1" t="s">
-        <v>2233</v>
-      </c>
       <c r="G1944" s="1" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="K1944" s="10"/>
+      <c r="AB1944" s="9"/>
     </row>
     <row r="1945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1945" s="1" t="n">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B1945" s="1"/>
       <c r="C1945" s="1" t="n">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E1945" s="6"/>
       <c r="G1945" s="1" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="H1945" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K1945" s="10"/>
     </row>
     <row r="1946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1946" s="1" t="n">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B1946" s="1"/>
       <c r="C1946" s="1" t="n">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E1946" s="6" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F1946" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="F1946" s="1" t="s">
-        <v>2235</v>
-      </c>
       <c r="G1946" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="I1946" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="K1946" s="10"/>
     </row>
     <row r="1947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1947" s="1" t="n">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B1947" s="1"/>
       <c r="C1947" s="1" t="n">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E1947" s="6"/>
       <c r="G1947" s="1" t="s">
@@ -41599,37 +41592,36 @@
       <c r="H1947" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1947" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="1948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1948" s="1" t="n">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B1948" s="1"/>
       <c r="C1948" s="1" t="n">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E1948" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F1948" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="F1948" s="1" t="s">
-        <v>2237</v>
-      </c>
       <c r="G1948" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="I1948" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="K1948" s="10"/>
-      <c r="AB1948" s="9"/>
     </row>
     <row r="1949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1949" s="1" t="n">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B1949" s="1"/>
       <c r="C1949" s="1" t="n">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E1949" s="6"/>
       <c r="G1949" s="1" t="s">
@@ -41638,33 +41630,37 @@
       <c r="H1949" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1949" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1950" s="1" t="n">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B1950" s="1"/>
       <c r="C1950" s="1" t="n">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E1950" s="6" t="s">
+        <v>2237</v>
+      </c>
+      <c r="F1950" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="F1950" s="1" t="s">
-        <v>2239</v>
-      </c>
       <c r="G1950" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K1950" s="10"/>
+      <c r="AB1950" s="9"/>
     </row>
     <row r="1951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1951" s="1" t="n">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B1951" s="1"/>
       <c r="C1951" s="1" t="n">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E1951" s="6"/>
       <c r="G1951" s="1" t="s">
@@ -41676,17 +41672,17 @@
     </row>
     <row r="1952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1952" s="1" t="n">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B1952" s="1"/>
       <c r="C1952" s="1" t="n">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E1952" s="6" t="s">
+        <v>2239</v>
+      </c>
+      <c r="F1952" s="1" t="s">
         <v>2240</v>
-      </c>
-      <c r="F1952" s="1" t="s">
-        <v>2241</v>
       </c>
       <c r="G1952" s="1" t="s">
         <v>42</v>
@@ -41695,11 +41691,11 @@
     </row>
     <row r="1953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1953" s="1" t="n">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B1953" s="1"/>
       <c r="C1953" s="1" t="n">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E1953" s="6"/>
       <c r="G1953" s="1" t="s">
@@ -41711,17 +41707,17 @@
     </row>
     <row r="1954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1954" s="1" t="n">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B1954" s="1"/>
       <c r="C1954" s="1" t="n">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E1954" s="6" t="s">
+        <v>2241</v>
+      </c>
+      <c r="F1954" s="1" t="s">
         <v>2242</v>
-      </c>
-      <c r="F1954" s="1" t="s">
-        <v>2243</v>
       </c>
       <c r="G1954" s="1" t="s">
         <v>42</v>
@@ -41730,11 +41726,11 @@
     </row>
     <row r="1955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1955" s="1" t="n">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B1955" s="1"/>
       <c r="C1955" s="1" t="n">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E1955" s="6"/>
       <c r="G1955" s="1" t="s">
@@ -41746,31 +41742,30 @@
     </row>
     <row r="1956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1956" s="1" t="n">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B1956" s="1"/>
       <c r="C1956" s="1" t="n">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E1956" s="6" t="s">
+        <v>2243</v>
+      </c>
+      <c r="F1956" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="F1956" s="1" t="s">
-        <v>2245</v>
-      </c>
       <c r="G1956" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K1956" s="10"/>
-      <c r="AB1956" s="9"/>
     </row>
     <row r="1957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1957" s="1" t="n">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B1957" s="1"/>
       <c r="C1957" s="1" t="n">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E1957" s="6"/>
       <c r="G1957" s="1" t="s">
@@ -41779,35 +41774,34 @@
       <c r="H1957" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1957" s="10"/>
-      <c r="AB1957" s="9"/>
     </row>
     <row r="1958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1958" s="1" t="n">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B1958" s="1"/>
       <c r="C1958" s="1" t="n">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E1958" s="6" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F1958" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="F1958" s="1" t="s">
-        <v>2247</v>
-      </c>
       <c r="G1958" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K1958" s="10"/>
+      <c r="AB1958" s="9"/>
     </row>
     <row r="1959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1959" s="1" t="n">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B1959" s="1"/>
       <c r="C1959" s="1" t="n">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E1959" s="6"/>
       <c r="G1959" s="1" t="s">
@@ -41816,20 +41810,22 @@
       <c r="H1959" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K1959" s="10"/>
+      <c r="AB1959" s="9"/>
     </row>
     <row r="1960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1960" s="1" t="n">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B1960" s="1"/>
       <c r="C1960" s="1" t="n">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E1960" s="6" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F1960" s="1" t="s">
         <v>2248</v>
-      </c>
-      <c r="F1960" s="1" t="s">
-        <v>2249</v>
       </c>
       <c r="G1960" s="1" t="s">
         <v>42</v>
@@ -41838,11 +41834,11 @@
     </row>
     <row r="1961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1961" s="1" t="n">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B1961" s="1"/>
       <c r="C1961" s="1" t="n">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E1961" s="6"/>
       <c r="G1961" s="1" t="s">
@@ -41854,17 +41850,17 @@
     </row>
     <row r="1962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1962" s="1" t="n">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B1962" s="1"/>
       <c r="C1962" s="1" t="n">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E1962" s="6" t="s">
+        <v>2249</v>
+      </c>
+      <c r="F1962" s="1" t="s">
         <v>2250</v>
-      </c>
-      <c r="F1962" s="1" t="s">
-        <v>2251</v>
       </c>
       <c r="G1962" s="1" t="s">
         <v>42</v>
@@ -41873,11 +41869,11 @@
     </row>
     <row r="1963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1963" s="1" t="n">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B1963" s="1"/>
       <c r="C1963" s="1" t="n">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E1963" s="6"/>
       <c r="G1963" s="1" t="s">
@@ -41889,31 +41885,30 @@
     </row>
     <row r="1964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1964" s="1" t="n">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B1964" s="1"/>
       <c r="C1964" s="1" t="n">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E1964" s="6" t="s">
+        <v>2251</v>
+      </c>
+      <c r="F1964" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="F1964" s="1" t="s">
-        <v>2253</v>
-      </c>
       <c r="G1964" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K1964" s="10"/>
-      <c r="AB1964" s="9"/>
     </row>
     <row r="1965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1965" s="1" t="n">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B1965" s="1"/>
       <c r="C1965" s="1" t="n">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E1965" s="6"/>
       <c r="G1965" s="1" t="s">
@@ -41925,70 +41920,70 @@
     </row>
     <row r="1966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1966" s="1" t="n">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B1966" s="1"/>
       <c r="C1966" s="1" t="n">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1966" s="6" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F1966" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="F1966" s="1" t="s">
-        <v>2255</v>
-      </c>
       <c r="G1966" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="K1966" s="10"/>
+      <c r="AB1966" s="9"/>
     </row>
     <row r="1967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1967" s="1" t="n">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B1967" s="1"/>
       <c r="C1967" s="1" t="n">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E1967" s="6"/>
       <c r="G1967" s="1" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="H1967" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1967" s="10"/>
     </row>
     <row r="1968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1968" s="1" t="n">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B1968" s="1"/>
       <c r="C1968" s="1" t="n">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E1968" s="6" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F1968" s="1" t="s">
         <v>2256</v>
       </c>
-      <c r="F1968" s="1" t="s">
-        <v>2257</v>
-      </c>
       <c r="G1968" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K1968" s="10"/>
     </row>
     <row r="1969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1969" s="1" t="n">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B1969" s="1"/>
       <c r="C1969" s="1" t="n">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E1969" s="6"/>
       <c r="G1969" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H1969" s="1" t="s">
         <v>7</v>
@@ -41997,69 +41992,70 @@
     </row>
     <row r="1970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1970" s="1" t="n">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B1970" s="1"/>
       <c r="C1970" s="1" t="n">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E1970" s="6" t="s">
+        <v>2257</v>
+      </c>
+      <c r="F1970" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="F1970" s="1" t="s">
-        <v>2259</v>
-      </c>
       <c r="G1970" s="1" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K1970" s="10"/>
     </row>
     <row r="1971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1971" s="1" t="n">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B1971" s="1"/>
       <c r="C1971" s="1" t="n">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E1971" s="6"/>
       <c r="G1971" s="1" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="H1971" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K1971" s="10"/>
     </row>
     <row r="1972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1972" s="1" t="n">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B1972" s="1"/>
       <c r="C1972" s="1" t="n">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E1972" s="6" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F1972" s="1" t="s">
         <v>2260</v>
       </c>
-      <c r="F1972" s="1" t="s">
-        <v>2261</v>
-      </c>
       <c r="G1972" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="K1972" s="10"/>
     </row>
     <row r="1973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1973" s="1" t="n">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B1973" s="1"/>
       <c r="C1973" s="1" t="n">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E1973" s="6"/>
       <c r="G1973" s="1" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="H1973" s="1" t="s">
         <v>7</v>
@@ -42067,35 +42063,34 @@
     </row>
     <row r="1974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1974" s="1" t="n">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B1974" s="1"/>
       <c r="C1974" s="1" t="n">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E1974" s="6" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F1974" s="1" t="s">
         <v>2262</v>
       </c>
-      <c r="F1974" s="1" t="s">
-        <v>2263</v>
-      </c>
       <c r="G1974" s="1" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K1974" s="10"/>
-      <c r="AB1974" s="9"/>
     </row>
     <row r="1975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1975" s="1" t="n">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B1975" s="1"/>
       <c r="C1975" s="1" t="n">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E1975" s="6"/>
       <c r="G1975" s="1" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="H1975" s="1" t="s">
         <v>7</v>
@@ -42103,30 +42098,31 @@
     </row>
     <row r="1976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1976" s="1" t="n">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B1976" s="1"/>
       <c r="C1976" s="1" t="n">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E1976" s="6" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F1976" s="1" t="s">
         <v>2264</v>
       </c>
-      <c r="F1976" s="1" t="s">
-        <v>2265</v>
-      </c>
       <c r="G1976" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K1976" s="10"/>
+      <c r="AB1976" s="9"/>
     </row>
     <row r="1977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1977" s="1" t="n">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B1977" s="1"/>
       <c r="C1977" s="1" t="n">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E1977" s="6"/>
       <c r="G1977" s="1" t="s">
@@ -42138,17 +42134,17 @@
     </row>
     <row r="1978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1978" s="1" t="n">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B1978" s="1"/>
       <c r="C1978" s="1" t="n">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E1978" s="6" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F1978" s="1" t="s">
         <v>2266</v>
-      </c>
-      <c r="F1978" s="1" t="s">
-        <v>2267</v>
       </c>
       <c r="G1978" s="1" t="s">
         <v>42</v>
@@ -42157,11 +42153,11 @@
     </row>
     <row r="1979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1979" s="1" t="n">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B1979" s="1"/>
       <c r="C1979" s="1" t="n">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E1979" s="6"/>
       <c r="G1979" s="1" t="s">
@@ -42173,34 +42169,34 @@
     </row>
     <row r="1980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1980" s="1" t="n">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B1980" s="1"/>
       <c r="C1980" s="1" t="n">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E1980" s="6" t="s">
+        <v>2267</v>
+      </c>
+      <c r="F1980" s="1" t="s">
         <v>2268</v>
       </c>
-      <c r="F1980" s="1" t="s">
-        <v>2269</v>
-      </c>
       <c r="G1980" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="K1980" s="10"/>
     </row>
     <row r="1981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1981" s="1" t="n">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B1981" s="1"/>
       <c r="C1981" s="1" t="n">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E1981" s="6"/>
       <c r="G1981" s="1" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="H1981" s="1" t="s">
         <v>7</v>
@@ -42208,34 +42204,34 @@
     </row>
     <row r="1982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1982" s="1" t="n">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B1982" s="1"/>
       <c r="C1982" s="1" t="n">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E1982" s="6" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F1982" s="1" t="s">
         <v>2270</v>
       </c>
-      <c r="F1982" s="1" t="s">
-        <v>2271</v>
-      </c>
       <c r="G1982" s="1" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K1982" s="10"/>
     </row>
     <row r="1983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1983" s="1" t="n">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B1983" s="1"/>
       <c r="C1983" s="1" t="n">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E1983" s="6"/>
       <c r="G1983" s="1" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="H1983" s="1" t="s">
         <v>7</v>
@@ -42243,65 +42239,64 @@
     </row>
     <row r="1984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1984" s="1" t="n">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B1984" s="1"/>
       <c r="C1984" s="1" t="n">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E1984" s="6" t="s">
+        <v>2271</v>
+      </c>
+      <c r="F1984" s="1" t="s">
         <v>2272</v>
       </c>
-      <c r="F1984" s="1" t="s">
-        <v>2273</v>
-      </c>
       <c r="G1984" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="K1984" s="10"/>
     </row>
     <row r="1985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1985" s="1" t="n">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B1985" s="1"/>
       <c r="C1985" s="1" t="n">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E1985" s="6"/>
       <c r="G1985" s="1" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="H1985" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1985" s="10"/>
     </row>
     <row r="1986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1986" s="1" t="n">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B1986" s="1"/>
       <c r="C1986" s="1" t="n">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E1986" s="6" t="s">
+        <v>2273</v>
+      </c>
+      <c r="F1986" s="1" t="s">
         <v>2274</v>
-      </c>
-      <c r="F1986" s="1" t="s">
-        <v>2275</v>
       </c>
       <c r="G1986" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K1986" s="10"/>
     </row>
     <row r="1987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1987" s="1" t="n">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B1987" s="1"/>
       <c r="C1987" s="1" t="n">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E1987" s="6"/>
       <c r="G1987" s="1" t="s">
@@ -42310,69 +42305,70 @@
       <c r="H1987" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K1987" s="10"/>
     </row>
     <row r="1988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1988" s="1" t="n">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B1988" s="1"/>
       <c r="C1988" s="1" t="n">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E1988" s="6" t="s">
+        <v>2275</v>
+      </c>
+      <c r="F1988" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="F1988" s="1" t="s">
-        <v>2277</v>
-      </c>
       <c r="G1988" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K1988" s="10"/>
-      <c r="AB1988" s="9"/>
     </row>
     <row r="1989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1989" s="1" t="n">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B1989" s="1"/>
       <c r="C1989" s="1" t="n">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E1989" s="6"/>
       <c r="G1989" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H1989" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1989" s="10"/>
     </row>
     <row r="1990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1990" s="1" t="n">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B1990" s="1"/>
       <c r="C1990" s="1" t="n">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E1990" s="6" t="s">
+        <v>2277</v>
+      </c>
+      <c r="F1990" s="1" t="s">
         <v>2278</v>
-      </c>
-      <c r="F1990" s="1" t="s">
-        <v>2279</v>
       </c>
       <c r="G1990" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="K1990" s="10"/>
+      <c r="AB1990" s="9"/>
     </row>
     <row r="1991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1991" s="1" t="n">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B1991" s="1"/>
       <c r="C1991" s="1" t="n">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E1991" s="6"/>
       <c r="G1991" s="1" t="s">
@@ -42385,71 +42381,69 @@
     </row>
     <row r="1992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1992" s="1" t="n">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B1992" s="1"/>
       <c r="C1992" s="1" t="n">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E1992" s="6" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F1992" s="1" t="s">
         <v>2280</v>
       </c>
-      <c r="F1992" s="1" t="s">
-        <v>2281</v>
-      </c>
       <c r="G1992" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1992" s="0"/>
-      <c r="L1992" s="0"/>
-      <c r="M1992" s="0"/>
-      <c r="O1992" s="0"/>
-      <c r="AB1992" s="9"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="1993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1993" s="1" t="n">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B1993" s="1"/>
       <c r="C1993" s="1" t="n">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E1993" s="6"/>
       <c r="G1993" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H1993" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K1993" s="10"/>
     </row>
     <row r="1994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1994" s="1" t="n">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B1994" s="1"/>
       <c r="C1994" s="1" t="n">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E1994" s="6" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F1994" s="1" t="s">
         <v>2282</v>
-      </c>
-      <c r="F1994" s="1" t="s">
-        <v>2283</v>
       </c>
       <c r="G1994" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I1994" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="K1994" s="0"/>
+      <c r="L1994" s="0"/>
+      <c r="M1994" s="0"/>
+      <c r="O1994" s="0"/>
+      <c r="AB1994" s="9"/>
     </row>
     <row r="1995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1995" s="1" t="n">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B1995" s="1"/>
       <c r="C1995" s="1" t="n">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E1995" s="6"/>
       <c r="G1995" s="1" t="s">
@@ -42458,58 +42452,60 @@
       <c r="H1995" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1995" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="1996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1996" s="1" t="n">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B1996" s="1"/>
       <c r="C1996" s="1" t="n">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E1996" s="6" t="s">
+        <v>2283</v>
+      </c>
+      <c r="F1996" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="F1996" s="1" t="s">
-        <v>2285</v>
-      </c>
       <c r="G1996" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1996" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="I1996" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1997" s="1" t="n">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B1997" s="1"/>
       <c r="C1997" s="1" t="n">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E1997" s="6"/>
       <c r="G1997" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H1997" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1997" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="1998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1998" s="1" t="n">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B1998" s="1"/>
       <c r="C1998" s="1" t="n">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E1998" s="6" t="s">
+        <v>2285</v>
+      </c>
+      <c r="F1998" s="1" t="s">
         <v>2286</v>
-      </c>
-      <c r="F1998" s="1" t="s">
-        <v>2287</v>
       </c>
       <c r="G1998" s="1" t="s">
         <v>116</v>
@@ -42518,11 +42514,11 @@
     </row>
     <row r="1999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1999" s="1" t="n">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B1999" s="1"/>
       <c r="C1999" s="1" t="n">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E1999" s="6"/>
       <c r="G1999" s="1" t="s">
@@ -42534,106 +42530,141 @@
     </row>
     <row r="2000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2000" s="1" t="n">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B2000" s="1"/>
       <c r="C2000" s="1" t="n">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E2000" s="6" t="s">
+        <v>2287</v>
+      </c>
+      <c r="F2000" s="1" t="s">
         <v>2288</v>
-      </c>
-      <c r="F2000" s="1" t="s">
-        <v>2289</v>
       </c>
       <c r="G2000" s="1" t="s">
         <v>116</v>
       </c>
       <c r="K2000" s="10"/>
-      <c r="AB2000" s="9"/>
     </row>
     <row r="2001" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2001" s="0" t="n">
-        <v>1130</v>
+      <c r="A2001" s="1" t="n">
+        <v>1128</v>
       </c>
       <c r="B2001" s="1"/>
-      <c r="C2001" s="0" t="n">
-        <v>1130</v>
-      </c>
-      <c r="D2001" s="0"/>
-      <c r="E2001" s="0" t="s">
+      <c r="C2001" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="E2001" s="6"/>
+      <c r="G2001" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2001" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2002" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2002" s="1" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B2002" s="1"/>
+      <c r="C2002" s="1" t="n">
+        <v>1129</v>
+      </c>
+      <c r="E2002" s="6" t="s">
+        <v>2289</v>
+      </c>
+      <c r="F2002" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="F2001" s="0" t="s">
-        <v>2291</v>
-      </c>
-      <c r="G2001" s="0"/>
-      <c r="H2001" s="0"/>
-      <c r="I2001" s="0"/>
-      <c r="J2001" s="0"/>
-    </row>
-    <row r="2002" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2002" s="0" t="n">
-        <v>1131</v>
-      </c>
-      <c r="B2002" s="1"/>
-      <c r="C2002" s="0" t="n">
-        <v>1131</v>
-      </c>
-      <c r="D2002" s="0"/>
-      <c r="E2002" s="0" t="s">
-        <v>2292</v>
-      </c>
-      <c r="F2002" s="0" t="s">
-        <v>2293</v>
-      </c>
-      <c r="G2002" s="0"/>
-      <c r="H2002" s="0"/>
-      <c r="I2002" s="0"/>
-      <c r="J2002" s="0"/>
+      <c r="G2002" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2002" s="10"/>
+      <c r="AB2002" s="9"/>
     </row>
     <row r="2003" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2003" s="0" t="n">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B2003" s="1"/>
       <c r="C2003" s="0" t="n">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D2003" s="0"/>
       <c r="E2003" s="0" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="F2003" s="0" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="G2003" s="0"/>
       <c r="H2003" s="0"/>
       <c r="I2003" s="0"/>
       <c r="J2003" s="0"/>
     </row>
+    <row r="2004" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2004" s="0" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B2004" s="1"/>
+      <c r="C2004" s="0" t="n">
+        <v>1131</v>
+      </c>
+      <c r="D2004" s="0"/>
+      <c r="E2004" s="0" t="s">
+        <v>2293</v>
+      </c>
+      <c r="F2004" s="0" t="s">
+        <v>2294</v>
+      </c>
+      <c r="G2004" s="0"/>
+      <c r="H2004" s="0"/>
+      <c r="I2004" s="0"/>
+      <c r="J2004" s="0"/>
+    </row>
     <row r="2005" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2005" s="0"/>
+      <c r="A2005" s="0" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B2005" s="1"/>
+      <c r="C2005" s="0" t="n">
+        <v>1132</v>
+      </c>
       <c r="D2005" s="0"/>
-      <c r="E2005" s="0"/>
-      <c r="F2005" s="0"/>
+      <c r="E2005" s="0" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F2005" s="0" t="s">
+        <v>2296</v>
+      </c>
       <c r="G2005" s="0"/>
       <c r="H2005" s="0"/>
       <c r="I2005" s="0"/>
       <c r="J2005" s="0"/>
     </row>
-    <row r="2006" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2006" s="0"/>
-      <c r="D2006" s="0"/>
-      <c r="E2006" s="0"/>
-      <c r="F2006" s="0"/>
-      <c r="G2006" s="0"/>
-      <c r="H2006" s="0"/>
-      <c r="I2006" s="0"/>
-      <c r="J2006" s="0"/>
+    <row r="2007" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C2007" s="0"/>
+      <c r="D2007" s="0"/>
+      <c r="E2007" s="0"/>
+      <c r="F2007" s="0"/>
+      <c r="G2007" s="0"/>
+      <c r="H2007" s="0"/>
+      <c r="I2007" s="0"/>
+      <c r="J2007" s="0"/>
+    </row>
+    <row r="2008" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C2008" s="0"/>
+      <c r="D2008" s="0"/>
+      <c r="E2008" s="0"/>
+      <c r="F2008" s="0"/>
+      <c r="G2008" s="0"/>
+      <c r="H2008" s="0"/>
+      <c r="I2008" s="0"/>
+      <c r="J2008" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC2003"/>
+  <autoFilter ref="A1:J2005"/>
   <conditionalFormatting sqref="C1:IN1">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(C1))&gt;0</formula>

--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -11,12 +11,12 @@
     <sheet name="lexcauc" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$B$1:$AD$2005</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn__FilterDatabase" vbProcedure="false">lexcauc!$I$1:$K$2590</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$B$1:$K$2004</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn__FilterDatabase" vbProcedure="false">lexcauc!$I$1:$K$2589</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="parameters" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="parameters_1" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="parameters_2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$B$1:$K$2005</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">lexcauc!$B$1:$AD$2004</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1831" authorId="0">
+    <comment ref="F1830" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1884" authorId="0">
+    <comment ref="F1883" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1892" authorId="0">
+    <comment ref="F1891" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4972" uniqueCount="2298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4970" uniqueCount="2297">
   <si>
     <t xml:space="preserve">form.id</t>
   </si>
@@ -6188,19 +6188,16 @@
     <t xml:space="preserve">TOUCH</t>
   </si>
   <si>
-    <t xml:space="preserve">ЖЁСТКИЙ</t>
+    <t xml:space="preserve">МЯГКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТВЁРДЫЙ</t>
   </si>
   <si>
     <t xml:space="preserve">HARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЯГКИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТВЁРДЫЙ</t>
   </si>
   <si>
     <t xml:space="preserve">ГЛАДКИЙ</t>
@@ -7688,15 +7685,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ2008"/>
+  <dimension ref="A1:AMJ2007"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="K2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="K1770" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A1782" activeCellId="0" sqref="A1782"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="5.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.65"/>
@@ -38743,11 +38740,11 @@
     </row>
     <row r="1782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1782" s="1" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C1782" s="1"/>
       <c r="D1782" s="1" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F1782" s="2" t="s">
         <v>2032</v>
@@ -38759,11 +38756,11 @@
     </row>
     <row r="1783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1783" s="1" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C1783" s="1"/>
       <c r="D1783" s="1" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F1783" s="2" t="s">
         <v>2034</v>
@@ -38771,257 +38768,260 @@
       <c r="G1783" s="1" t="s">
         <v>2035</v>
       </c>
-      <c r="L1783" s="10"/>
+      <c r="L1783" s="0"/>
+      <c r="M1783" s="0"/>
+      <c r="N1783" s="0"/>
     </row>
     <row r="1784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1784" s="1" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C1784" s="1"/>
       <c r="D1784" s="1" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F1784" s="2" t="s">
         <v>2036</v>
       </c>
       <c r="G1784" s="1" t="s">
-        <v>2033</v>
-      </c>
-      <c r="L1784" s="0"/>
-      <c r="M1784" s="0"/>
-      <c r="N1784" s="0"/>
+        <v>2037</v>
+      </c>
+      <c r="L1784" s="10"/>
     </row>
     <row r="1785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1785" s="1" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C1785" s="1"/>
       <c r="D1785" s="1" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F1785" s="2" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="G1785" s="1" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="L1785" s="10"/>
+      <c r="AC1785" s="9"/>
     </row>
     <row r="1786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1786" s="1" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C1786" s="1"/>
       <c r="D1786" s="1" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F1786" s="2" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="G1786" s="1" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="L1786" s="10"/>
-      <c r="AC1786" s="9"/>
     </row>
     <row r="1787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1787" s="1" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C1787" s="1"/>
       <c r="D1787" s="1" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F1787" s="2" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="G1787" s="1" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="L1787" s="10"/>
+      <c r="AC1787" s="9"/>
     </row>
     <row r="1788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1788" s="1" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C1788" s="1"/>
       <c r="D1788" s="1" t="n">
-        <v>1005</v>
-      </c>
-      <c r="F1788" s="2" t="s">
-        <v>2043</v>
+        <v>1006</v>
+      </c>
+      <c r="F1788" s="6" t="s">
+        <v>2044</v>
       </c>
       <c r="G1788" s="1" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="L1788" s="10"/>
-      <c r="AC1788" s="9"/>
     </row>
     <row r="1789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1789" s="1" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C1789" s="1"/>
       <c r="D1789" s="1" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F1789" s="6" t="s">
-        <v>2045</v>
+        <v>1007</v>
+      </c>
+      <c r="F1789" s="2" t="s">
+        <v>2046</v>
       </c>
       <c r="G1789" s="1" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="L1789" s="10"/>
+      <c r="AC1789" s="9"/>
     </row>
     <row r="1790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1790" s="1" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C1790" s="1"/>
       <c r="D1790" s="1" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F1790" s="2" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="G1790" s="1" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="L1790" s="10"/>
-      <c r="AC1790" s="9"/>
     </row>
     <row r="1791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1791" s="1" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C1791" s="1"/>
       <c r="D1791" s="1" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="F1791" s="2" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="G1791" s="1" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="L1791" s="10"/>
+      <c r="AB1791" s="0"/>
     </row>
     <row r="1792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1792" s="1" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C1792" s="1"/>
       <c r="D1792" s="1" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F1792" s="2" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="G1792" s="1" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="L1792" s="10"/>
       <c r="AB1792" s="0"/>
     </row>
     <row r="1793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1793" s="1" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C1793" s="1"/>
       <c r="D1793" s="1" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F1793" s="2" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="G1793" s="1" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="L1793" s="10"/>
       <c r="AB1793" s="0"/>
     </row>
     <row r="1794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1794" s="1" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C1794" s="1"/>
       <c r="D1794" s="1" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F1794" s="2" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="G1794" s="1" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="L1794" s="10"/>
-      <c r="AB1794" s="0"/>
     </row>
     <row r="1795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1795" s="1" t="n">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C1795" s="1"/>
       <c r="D1795" s="1" t="n">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F1795" s="2" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="G1795" s="1" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="L1795" s="10"/>
+      <c r="AB1795" s="0"/>
     </row>
     <row r="1796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1796" s="1" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C1796" s="1"/>
       <c r="D1796" s="1" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F1796" s="2" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="G1796" s="1" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="L1796" s="10"/>
-      <c r="AB1796" s="0"/>
     </row>
     <row r="1797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1797" s="1" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C1797" s="1"/>
       <c r="D1797" s="1" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F1797" s="2" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="G1797" s="1" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="L1797" s="10"/>
+      <c r="AB1797" s="0"/>
     </row>
     <row r="1798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1798" s="1" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C1798" s="1"/>
       <c r="D1798" s="1" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F1798" s="2" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="G1798" s="1" t="s">
-        <v>2064</v>
+        <v>2065</v>
+      </c>
+      <c r="H1798" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="L1798" s="10"/>
-      <c r="AB1798" s="0"/>
     </row>
     <row r="1799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1799" s="1" t="n">
@@ -39031,31 +39031,32 @@
       <c r="D1799" s="1" t="n">
         <v>1016</v>
       </c>
-      <c r="F1799" s="2" t="s">
-        <v>2065</v>
-      </c>
-      <c r="G1799" s="1" t="s">
-        <v>2066</v>
-      </c>
       <c r="H1799" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1799" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="I1799" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1800" s="1" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C1800" s="1"/>
       <c r="D1800" s="1" t="n">
-        <v>1016</v>
+        <v>1017</v>
+      </c>
+      <c r="F1800" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="G1800" s="1" t="s">
+        <v>2067</v>
       </c>
       <c r="H1800" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1800" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L1800" s="10"/>
+      <c r="M1800" s="0"/>
     </row>
     <row r="1801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1801" s="1" t="n">
@@ -39065,33 +39066,34 @@
       <c r="D1801" s="1" t="n">
         <v>1017</v>
       </c>
-      <c r="F1801" s="2" t="s">
-        <v>2067</v>
-      </c>
-      <c r="G1801" s="1" t="s">
-        <v>2068</v>
-      </c>
       <c r="H1801" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="I1801" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1801" s="10"/>
-      <c r="M1801" s="0"/>
     </row>
     <row r="1802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1802" s="1" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C1802" s="1"/>
       <c r="D1802" s="1" t="n">
-        <v>1017</v>
+        <v>1018</v>
+      </c>
+      <c r="F1802" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G1802" s="1" t="s">
+        <v>2069</v>
       </c>
       <c r="H1802" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1802" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1802" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="M1802" s="0"/>
+      <c r="N1802" s="0"/>
+      <c r="AC1802" s="9"/>
     </row>
     <row r="1803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1803" s="1" t="n">
@@ -39101,36 +39103,34 @@
       <c r="D1803" s="1" t="n">
         <v>1018</v>
       </c>
-      <c r="F1803" s="2" t="s">
-        <v>2069</v>
-      </c>
-      <c r="G1803" s="1" t="s">
-        <v>2070</v>
-      </c>
       <c r="H1803" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1803" s="0"/>
-      <c r="N1803" s="0"/>
-      <c r="AC1803" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="I1803" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1803" s="10"/>
+      <c r="M1803" s="10"/>
+      <c r="N1803" s="10"/>
     </row>
     <row r="1804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1804" s="1" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C1804" s="1"/>
       <c r="D1804" s="1" t="n">
-        <v>1018</v>
+        <v>1019</v>
+      </c>
+      <c r="F1804" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G1804" s="1" t="s">
+        <v>2071</v>
       </c>
       <c r="H1804" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1804" s="1" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="L1804" s="10"/>
-      <c r="M1804" s="10"/>
-      <c r="N1804" s="10"/>
     </row>
     <row r="1805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1805" s="1" t="n">
@@ -39140,30 +39140,30 @@
       <c r="D1805" s="1" t="n">
         <v>1019</v>
       </c>
-      <c r="F1805" s="2" t="s">
-        <v>2071</v>
-      </c>
-      <c r="G1805" s="1" t="s">
-        <v>2072</v>
-      </c>
       <c r="H1805" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="I1805" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1805" s="10"/>
     </row>
     <row r="1806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1806" s="1" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C1806" s="1"/>
       <c r="D1806" s="1" t="n">
-        <v>1019</v>
+        <v>1020</v>
+      </c>
+      <c r="F1806" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="G1806" s="1" t="s">
+        <v>1672</v>
       </c>
       <c r="H1806" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="I1806" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="L1806" s="10"/>
     </row>
@@ -39175,30 +39175,30 @@
       <c r="D1807" s="1" t="n">
         <v>1020</v>
       </c>
-      <c r="F1807" s="2" t="s">
-        <v>2073</v>
-      </c>
-      <c r="G1807" s="1" t="s">
-        <v>1672</v>
-      </c>
       <c r="H1807" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="I1807" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1807" s="10"/>
     </row>
     <row r="1808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1808" s="1" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C1808" s="1"/>
       <c r="D1808" s="1" t="n">
-        <v>1020</v>
+        <v>1021</v>
+      </c>
+      <c r="F1808" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="G1808" s="1" t="s">
+        <v>2074</v>
       </c>
       <c r="H1808" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1808" s="1" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="L1808" s="10"/>
     </row>
@@ -39210,30 +39210,30 @@
       <c r="D1809" s="1" t="n">
         <v>1021</v>
       </c>
-      <c r="F1809" s="2" t="s">
-        <v>2074</v>
-      </c>
-      <c r="G1809" s="1" t="s">
-        <v>2075</v>
-      </c>
       <c r="H1809" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="I1809" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1809" s="10"/>
     </row>
     <row r="1810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1810" s="1" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C1810" s="1"/>
       <c r="D1810" s="1" t="n">
-        <v>1021</v>
+        <v>1022</v>
+      </c>
+      <c r="F1810" s="2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="G1810" s="1" t="s">
+        <v>2076</v>
       </c>
       <c r="H1810" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="I1810" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="L1810" s="10"/>
     </row>
@@ -39245,31 +39245,31 @@
       <c r="D1811" s="1" t="n">
         <v>1022</v>
       </c>
-      <c r="F1811" s="2" t="s">
-        <v>2076</v>
-      </c>
-      <c r="G1811" s="1" t="s">
-        <v>2077</v>
-      </c>
       <c r="H1811" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1811" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="I1811" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1812" s="1" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C1812" s="1"/>
       <c r="D1812" s="1" t="n">
-        <v>1022</v>
+        <v>1023</v>
+      </c>
+      <c r="F1812" s="2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G1812" s="1" t="s">
+        <v>2078</v>
       </c>
       <c r="H1812" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1812" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L1812" s="10"/>
     </row>
     <row r="1813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1813" s="1" t="n">
@@ -39279,31 +39279,31 @@
       <c r="D1813" s="1" t="n">
         <v>1023</v>
       </c>
-      <c r="F1813" s="2" t="s">
-        <v>2078</v>
-      </c>
-      <c r="G1813" s="1" t="s">
-        <v>2079</v>
-      </c>
       <c r="H1813" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1813" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="I1813" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1814" s="1" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C1814" s="1"/>
       <c r="D1814" s="1" t="n">
-        <v>1023</v>
+        <v>1024</v>
+      </c>
+      <c r="F1814" s="6" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G1814" s="1" t="s">
+        <v>2080</v>
       </c>
       <c r="H1814" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I1814" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="L1814" s="10"/>
     </row>
     <row r="1815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1815" s="1" t="n">
@@ -39313,32 +39313,32 @@
       <c r="D1815" s="1" t="n">
         <v>1024</v>
       </c>
-      <c r="F1815" s="6" t="s">
-        <v>2080</v>
-      </c>
-      <c r="G1815" s="1" t="s">
-        <v>2081</v>
-      </c>
+      <c r="F1815" s="6"/>
       <c r="H1815" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1815" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="I1815" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1816" s="1" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C1816" s="1"/>
       <c r="D1816" s="1" t="n">
-        <v>1024</v>
-      </c>
-      <c r="F1816" s="6"/>
+        <v>1025</v>
+      </c>
+      <c r="F1816" s="6" t="s">
+        <v>2081</v>
+      </c>
+      <c r="G1816" s="1" t="s">
+        <v>2082</v>
+      </c>
       <c r="H1816" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1816" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="L1816" s="10"/>
     </row>
     <row r="1817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1817" s="1" t="n">
@@ -39348,31 +39348,31 @@
       <c r="D1817" s="1" t="n">
         <v>1025</v>
       </c>
-      <c r="F1817" s="6" t="s">
-        <v>2082</v>
-      </c>
-      <c r="G1817" s="1" t="s">
-        <v>2083</v>
-      </c>
+      <c r="F1817" s="6"/>
       <c r="H1817" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="I1817" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1817" s="10"/>
     </row>
     <row r="1818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1818" s="1" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C1818" s="1"/>
       <c r="D1818" s="1" t="n">
-        <v>1025</v>
-      </c>
-      <c r="F1818" s="6"/>
+        <v>1026</v>
+      </c>
+      <c r="F1818" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="G1818" s="1" t="s">
+        <v>2084</v>
+      </c>
       <c r="H1818" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="I1818" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="L1818" s="10"/>
     </row>
@@ -39384,32 +39384,31 @@
       <c r="D1819" s="1" t="n">
         <v>1026</v>
       </c>
-      <c r="F1819" s="2" t="s">
-        <v>2084</v>
-      </c>
-      <c r="G1819" s="1" t="s">
-        <v>2085</v>
-      </c>
       <c r="H1819" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="I1819" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1819" s="10"/>
     </row>
     <row r="1820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1820" s="1" t="n">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C1820" s="1"/>
       <c r="D1820" s="1" t="n">
-        <v>1026</v>
+        <v>1027</v>
+      </c>
+      <c r="F1820" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G1820" s="1" t="s">
+        <v>2086</v>
       </c>
       <c r="H1820" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I1820" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1820" s="10"/>
     </row>
     <row r="1821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1821" s="1" t="n">
@@ -39419,60 +39418,61 @@
       <c r="D1821" s="1" t="n">
         <v>1027</v>
       </c>
-      <c r="F1821" s="2" t="s">
-        <v>2086</v>
-      </c>
-      <c r="G1821" s="1" t="s">
-        <v>2087</v>
-      </c>
       <c r="H1821" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="I1821" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="1822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1822" s="1" t="n">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C1822" s="1"/>
       <c r="D1822" s="1" t="n">
-        <v>1027</v>
-      </c>
-      <c r="H1822" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1822" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>1028</v>
+      </c>
+      <c r="F1822" s="2" t="s">
+        <v>2087</v>
+      </c>
+      <c r="G1822" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="L1822" s="10"/>
     </row>
     <row r="1823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1823" s="1" t="n">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C1823" s="1"/>
       <c r="D1823" s="1" t="n">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F1823" s="2" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="G1823" s="1" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="L1823" s="10"/>
     </row>
     <row r="1824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1824" s="1" t="n">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C1824" s="1"/>
       <c r="D1824" s="1" t="n">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F1824" s="2" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="G1824" s="1" t="s">
-        <v>2091</v>
+        <v>2092</v>
+      </c>
+      <c r="H1824" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="L1824" s="10"/>
     </row>
@@ -39484,31 +39484,31 @@
       <c r="D1825" s="1" t="n">
         <v>1030</v>
       </c>
-      <c r="F1825" s="2" t="s">
-        <v>2092</v>
-      </c>
-      <c r="G1825" s="1" t="s">
-        <v>2093</v>
-      </c>
       <c r="H1825" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1825" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="I1825" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1826" s="1" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C1826" s="1"/>
       <c r="D1826" s="1" t="n">
-        <v>1030</v>
+        <v>1031</v>
+      </c>
+      <c r="F1826" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="G1826" s="1" t="s">
+        <v>2094</v>
       </c>
       <c r="H1826" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I1826" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="L1826" s="10"/>
     </row>
     <row r="1827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1827" s="1" t="n">
@@ -39518,30 +39518,30 @@
       <c r="D1827" s="1" t="n">
         <v>1031</v>
       </c>
-      <c r="F1827" s="2" t="s">
-        <v>2094</v>
-      </c>
-      <c r="G1827" s="1" t="s">
-        <v>2095</v>
-      </c>
       <c r="H1827" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="I1827" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1827" s="10"/>
     </row>
     <row r="1828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1828" s="1" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C1828" s="1"/>
       <c r="D1828" s="1" t="n">
-        <v>1031</v>
+        <v>1032</v>
+      </c>
+      <c r="F1828" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="G1828" s="1" t="s">
+        <v>2096</v>
       </c>
       <c r="H1828" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1828" s="1" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="L1828" s="10"/>
     </row>
@@ -39553,32 +39553,33 @@
       <c r="D1829" s="1" t="n">
         <v>1032</v>
       </c>
-      <c r="F1829" s="2" t="s">
-        <v>2096</v>
-      </c>
-      <c r="G1829" s="1" t="s">
-        <v>2097</v>
-      </c>
       <c r="H1829" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="I1829" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1829" s="10"/>
     </row>
     <row r="1830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1830" s="1" t="n">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C1830" s="1"/>
       <c r="D1830" s="1" t="n">
-        <v>1032</v>
+        <v>1033</v>
+      </c>
+      <c r="F1830" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="G1830" s="1" t="s">
+        <v>2098</v>
       </c>
       <c r="H1830" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1830" s="1" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="L1830" s="10"/>
+      <c r="AC1830" s="9"/>
     </row>
     <row r="1831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1831" s="1" t="n">
@@ -39588,63 +39589,62 @@
       <c r="D1831" s="1" t="n">
         <v>1033</v>
       </c>
-      <c r="F1831" s="2" t="s">
-        <v>2098</v>
-      </c>
-      <c r="G1831" s="1" t="s">
-        <v>2099</v>
-      </c>
       <c r="H1831" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1831" s="10"/>
-      <c r="AC1831" s="9"/>
+        <v>117</v>
+      </c>
+      <c r="I1831" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1832" s="1" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C1832" s="1"/>
       <c r="D1832" s="1" t="n">
-        <v>1033</v>
-      </c>
-      <c r="H1832" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1832" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>1034</v>
+      </c>
+      <c r="F1832" s="2" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G1832" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="L1832" s="10"/>
+      <c r="AC1832" s="9"/>
     </row>
     <row r="1833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1833" s="1" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C1833" s="1"/>
       <c r="D1833" s="1" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F1833" s="2" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="G1833" s="1" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="L1833" s="10"/>
-      <c r="AC1833" s="9"/>
     </row>
     <row r="1834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1834" s="1" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C1834" s="1"/>
       <c r="D1834" s="1" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="F1834" s="2" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="G1834" s="1" t="s">
-        <v>2103</v>
+        <v>2104</v>
+      </c>
+      <c r="H1834" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="L1834" s="10"/>
     </row>
@@ -39656,95 +39656,95 @@
       <c r="D1835" s="1" t="n">
         <v>1036</v>
       </c>
-      <c r="F1835" s="2" t="s">
-        <v>2104</v>
-      </c>
-      <c r="G1835" s="1" t="s">
-        <v>2105</v>
-      </c>
       <c r="H1835" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="I1835" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1835" s="10"/>
     </row>
     <row r="1836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1836" s="1" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C1836" s="1"/>
       <c r="D1836" s="1" t="n">
-        <v>1036</v>
-      </c>
-      <c r="H1836" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1836" s="1" t="s">
-        <v>8</v>
+        <v>1037</v>
+      </c>
+      <c r="F1836" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G1836" s="1" t="s">
+        <v>2106</v>
       </c>
       <c r="L1836" s="10"/>
     </row>
     <row r="1837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1837" s="1" t="n">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C1837" s="1"/>
       <c r="D1837" s="1" t="n">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F1837" s="2" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="G1837" s="1" t="s">
-        <v>2107</v>
-      </c>
-      <c r="L1837" s="10"/>
+        <v>2108</v>
+      </c>
+      <c r="L1837" s="8"/>
     </row>
     <row r="1838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1838" s="1" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C1838" s="1"/>
       <c r="D1838" s="1" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F1838" s="2" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="G1838" s="1" t="s">
-        <v>2109</v>
-      </c>
-      <c r="L1838" s="8"/>
+        <v>2110</v>
+      </c>
+      <c r="L1838" s="10"/>
+      <c r="AC1838" s="9"/>
     </row>
     <row r="1839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1839" s="1" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C1839" s="1"/>
       <c r="D1839" s="1" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F1839" s="2" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="G1839" s="1" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="L1839" s="10"/>
-      <c r="AC1839" s="9"/>
     </row>
     <row r="1840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1840" s="1" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C1840" s="1"/>
       <c r="D1840" s="1" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F1840" s="2" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="G1840" s="1" t="s">
-        <v>2113</v>
+        <v>2114</v>
+      </c>
+      <c r="H1840" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="L1840" s="10"/>
     </row>
@@ -39756,31 +39756,31 @@
       <c r="D1841" s="1" t="n">
         <v>1041</v>
       </c>
-      <c r="F1841" s="2" t="s">
-        <v>2114</v>
-      </c>
-      <c r="G1841" s="1" t="s">
-        <v>2115</v>
-      </c>
       <c r="H1841" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1841" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="I1841" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1842" s="1" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C1842" s="1"/>
       <c r="D1842" s="1" t="n">
-        <v>1041</v>
+        <v>1042</v>
+      </c>
+      <c r="F1842" s="2" t="s">
+        <v>2115</v>
+      </c>
+      <c r="G1842" s="1" t="s">
+        <v>2116</v>
       </c>
       <c r="H1842" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1842" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L1842" s="10"/>
     </row>
     <row r="1843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1843" s="1" t="n">
@@ -39790,30 +39790,30 @@
       <c r="D1843" s="1" t="n">
         <v>1042</v>
       </c>
-      <c r="F1843" s="2" t="s">
-        <v>2116</v>
-      </c>
-      <c r="G1843" s="1" t="s">
-        <v>2117</v>
-      </c>
       <c r="H1843" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="I1843" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1843" s="10"/>
     </row>
     <row r="1844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1844" s="1" t="n">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C1844" s="1"/>
       <c r="D1844" s="1" t="n">
-        <v>1042</v>
+        <v>1043</v>
+      </c>
+      <c r="F1844" s="2" t="s">
+        <v>2117</v>
+      </c>
+      <c r="G1844" s="1" t="s">
+        <v>2118</v>
       </c>
       <c r="H1844" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="I1844" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="L1844" s="10"/>
     </row>
@@ -39825,30 +39825,29 @@
       <c r="D1845" s="1" t="n">
         <v>1043</v>
       </c>
-      <c r="F1845" s="2" t="s">
-        <v>2118</v>
-      </c>
-      <c r="G1845" s="1" t="s">
-        <v>2119</v>
-      </c>
       <c r="H1845" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1845" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="I1845" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1846" s="1" t="n">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C1846" s="1"/>
       <c r="D1846" s="1" t="n">
-        <v>1043</v>
+        <v>1044</v>
+      </c>
+      <c r="F1846" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="G1846" s="1" t="s">
+        <v>2120</v>
       </c>
       <c r="H1846" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="I1846" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="1847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -39859,31 +39858,31 @@
       <c r="D1847" s="1" t="n">
         <v>1044</v>
       </c>
-      <c r="F1847" s="2" t="s">
-        <v>2120</v>
-      </c>
-      <c r="G1847" s="1" t="s">
-        <v>2121</v>
-      </c>
       <c r="H1847" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="I1847" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1847" s="10"/>
     </row>
     <row r="1848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1848" s="1" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C1848" s="1"/>
       <c r="D1848" s="1" t="n">
-        <v>1044</v>
+        <v>1045</v>
+      </c>
+      <c r="F1848" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="G1848" s="1" t="s">
+        <v>2122</v>
       </c>
       <c r="H1848" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1848" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1848" s="10"/>
+        <v>117</v>
+      </c>
     </row>
     <row r="1849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1849" s="1" t="n">
@@ -39893,29 +39892,29 @@
       <c r="D1849" s="1" t="n">
         <v>1045</v>
       </c>
-      <c r="F1849" s="2" t="s">
-        <v>2122</v>
-      </c>
-      <c r="G1849" s="1" t="s">
-        <v>2123</v>
-      </c>
       <c r="H1849" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="I1849" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1849" s="10"/>
+      <c r="M1849" s="0"/>
+      <c r="N1849" s="0"/>
     </row>
     <row r="1850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1850" s="1" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C1850" s="1"/>
       <c r="D1850" s="1" t="n">
-        <v>1045</v>
-      </c>
-      <c r="H1850" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1850" s="1" t="s">
-        <v>8</v>
+        <v>1046</v>
+      </c>
+      <c r="F1850" s="2" t="s">
+        <v>2123</v>
+      </c>
+      <c r="G1850" s="1" t="s">
+        <v>2124</v>
       </c>
       <c r="L1850" s="10"/>
       <c r="M1850" s="0"/>
@@ -39923,37 +39922,39 @@
     </row>
     <row r="1851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1851" s="1" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C1851" s="1"/>
       <c r="D1851" s="1" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F1851" s="2" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="G1851" s="1" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="L1851" s="10"/>
-      <c r="M1851" s="0"/>
-      <c r="N1851" s="0"/>
     </row>
     <row r="1852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1852" s="1" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C1852" s="1"/>
       <c r="D1852" s="1" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="F1852" s="2" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="G1852" s="1" t="s">
-        <v>2127</v>
+        <v>2128</v>
+      </c>
+      <c r="H1852" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="L1852" s="10"/>
+      <c r="AC1852" s="9"/>
     </row>
     <row r="1853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1853" s="1" t="n">
@@ -39963,33 +39964,33 @@
       <c r="D1853" s="1" t="n">
         <v>1048</v>
       </c>
-      <c r="F1853" s="2" t="s">
-        <v>2128</v>
-      </c>
-      <c r="G1853" s="1" t="s">
-        <v>2129</v>
-      </c>
       <c r="H1853" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="I1853" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1853" s="10"/>
-      <c r="AC1853" s="9"/>
     </row>
     <row r="1854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1854" s="1" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C1854" s="1"/>
       <c r="D1854" s="1" t="n">
-        <v>1048</v>
+        <v>1049</v>
+      </c>
+      <c r="F1854" s="2" t="s">
+        <v>2129</v>
+      </c>
+      <c r="G1854" s="1" t="s">
+        <v>2130</v>
       </c>
       <c r="H1854" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I1854" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="L1854" s="10"/>
+      <c r="AC1854" s="9"/>
     </row>
     <row r="1855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1855" s="1" t="n">
@@ -39999,32 +40000,32 @@
       <c r="D1855" s="1" t="n">
         <v>1049</v>
       </c>
-      <c r="F1855" s="2" t="s">
-        <v>2130</v>
-      </c>
-      <c r="G1855" s="1" t="s">
-        <v>2131</v>
-      </c>
       <c r="H1855" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1855" s="10"/>
-      <c r="AC1855" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="I1855" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1856" s="1" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C1856" s="1"/>
       <c r="D1856" s="1" t="n">
-        <v>1049</v>
+        <v>1050</v>
+      </c>
+      <c r="F1856" s="6" t="s">
+        <v>2131</v>
+      </c>
+      <c r="G1856" s="1" t="s">
+        <v>2132</v>
       </c>
       <c r="H1856" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I1856" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="L1856" s="10"/>
+      <c r="AC1856" s="9"/>
     </row>
     <row r="1857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1857" s="1" t="n">
@@ -40034,33 +40035,32 @@
       <c r="D1857" s="1" t="n">
         <v>1050</v>
       </c>
-      <c r="F1857" s="6" t="s">
-        <v>2132</v>
-      </c>
-      <c r="G1857" s="1" t="s">
-        <v>2133</v>
-      </c>
+      <c r="F1857" s="6"/>
       <c r="H1857" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1857" s="10"/>
-      <c r="AC1857" s="9"/>
+        <v>117</v>
+      </c>
+      <c r="I1857" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1858" s="1" t="n">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C1858" s="1"/>
       <c r="D1858" s="1" t="n">
-        <v>1050</v>
-      </c>
-      <c r="F1858" s="6"/>
+        <v>1051</v>
+      </c>
+      <c r="F1858" s="6" t="s">
+        <v>2133</v>
+      </c>
+      <c r="G1858" s="1" t="s">
+        <v>2134</v>
+      </c>
       <c r="H1858" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1858" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="L1858" s="10"/>
     </row>
     <row r="1859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1859" s="1" t="n">
@@ -40070,265 +40070,265 @@
       <c r="D1859" s="1" t="n">
         <v>1051</v>
       </c>
-      <c r="F1859" s="6" t="s">
-        <v>2134</v>
-      </c>
-      <c r="G1859" s="1" t="s">
-        <v>2135</v>
-      </c>
+      <c r="F1859" s="6"/>
       <c r="H1859" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1859" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="I1859" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1860" s="1" t="n">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C1860" s="1"/>
       <c r="D1860" s="1" t="n">
-        <v>1051</v>
-      </c>
-      <c r="F1860" s="6"/>
-      <c r="H1860" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1860" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>1052</v>
+      </c>
+      <c r="F1860" s="6" t="s">
+        <v>2135</v>
+      </c>
+      <c r="G1860" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="L1860" s="10"/>
     </row>
     <row r="1861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1861" s="1" t="n">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C1861" s="1"/>
       <c r="D1861" s="1" t="n">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="F1861" s="6" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="G1861" s="1" t="s">
-        <v>2137</v>
-      </c>
-      <c r="L1861" s="10"/>
+        <v>2138</v>
+      </c>
+      <c r="L1861" s="8"/>
     </row>
     <row r="1862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1862" s="1" t="n">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C1862" s="1"/>
       <c r="D1862" s="1" t="n">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F1862" s="6" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="G1862" s="1" t="s">
-        <v>2139</v>
-      </c>
-      <c r="L1862" s="8"/>
+        <v>2140</v>
+      </c>
     </row>
     <row r="1863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1863" s="1" t="n">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C1863" s="1"/>
       <c r="D1863" s="1" t="n">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F1863" s="6" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="G1863" s="1" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1864" s="1" t="n">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C1864" s="1"/>
       <c r="D1864" s="1" t="n">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="F1864" s="6" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="G1864" s="1" t="s">
-        <v>2143</v>
-      </c>
+        <v>2144</v>
+      </c>
+      <c r="L1864" s="10"/>
     </row>
     <row r="1865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1865" s="1" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C1865" s="1"/>
       <c r="D1865" s="1" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="F1865" s="6" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="G1865" s="1" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="L1865" s="10"/>
     </row>
     <row r="1866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1866" s="1" t="n">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C1866" s="1"/>
       <c r="D1866" s="1" t="n">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="F1866" s="6" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="G1866" s="1" t="s">
-        <v>2147</v>
-      </c>
-      <c r="L1866" s="10"/>
+        <v>2148</v>
+      </c>
     </row>
     <row r="1867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1867" s="1" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C1867" s="1"/>
       <c r="D1867" s="1" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F1867" s="6" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="G1867" s="1" t="s">
-        <v>2149</v>
-      </c>
+        <v>2150</v>
+      </c>
+      <c r="L1867" s="10"/>
     </row>
     <row r="1868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1868" s="1" t="n">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C1868" s="1"/>
       <c r="D1868" s="1" t="n">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F1868" s="6" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="G1868" s="1" t="s">
-        <v>2151</v>
-      </c>
-      <c r="L1868" s="10"/>
+        <v>2152</v>
+      </c>
     </row>
     <row r="1869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1869" s="1" t="n">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C1869" s="1"/>
       <c r="D1869" s="1" t="n">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="F1869" s="6" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="G1869" s="1" t="s">
-        <v>2153</v>
-      </c>
+        <v>2154</v>
+      </c>
+      <c r="L1869" s="10"/>
     </row>
     <row r="1870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1870" s="1" t="n">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C1870" s="1"/>
       <c r="D1870" s="1" t="n">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F1870" s="6" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="G1870" s="1" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="L1870" s="10"/>
     </row>
     <row r="1871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1871" s="1" t="n">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C1871" s="1"/>
       <c r="D1871" s="1" t="n">
-        <v>1062</v>
-      </c>
-      <c r="F1871" s="6" t="s">
-        <v>2156</v>
+        <v>1063</v>
+      </c>
+      <c r="F1871" s="2" t="s">
+        <v>2157</v>
       </c>
       <c r="G1871" s="1" t="s">
-        <v>2157</v>
-      </c>
-      <c r="L1871" s="10"/>
+        <v>2158</v>
+      </c>
     </row>
     <row r="1872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1872" s="1" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C1872" s="1"/>
       <c r="D1872" s="1" t="n">
-        <v>1063</v>
-      </c>
-      <c r="F1872" s="2" t="s">
-        <v>2158</v>
+        <v>1064</v>
+      </c>
+      <c r="F1872" s="6" t="s">
+        <v>2159</v>
       </c>
       <c r="G1872" s="1" t="s">
-        <v>2159</v>
-      </c>
+        <v>2160</v>
+      </c>
+      <c r="L1872" s="10"/>
     </row>
     <row r="1873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1873" s="1" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C1873" s="1"/>
       <c r="D1873" s="1" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="F1873" s="6" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="G1873" s="1" t="s">
-        <v>2161</v>
-      </c>
-      <c r="L1873" s="10"/>
+        <v>2162</v>
+      </c>
     </row>
     <row r="1874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1874" s="1" t="n">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C1874" s="1"/>
       <c r="D1874" s="1" t="n">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F1874" s="6" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="G1874" s="1" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1875" s="1" t="n">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C1875" s="1"/>
       <c r="D1875" s="1" t="n">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F1875" s="6" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="G1875" s="1" t="s">
-        <v>2165</v>
-      </c>
+        <v>2166</v>
+      </c>
+      <c r="H1875" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1875" s="10"/>
     </row>
     <row r="1876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1876" s="1" t="n">
@@ -40338,32 +40338,32 @@
       <c r="D1876" s="1" t="n">
         <v>1067</v>
       </c>
-      <c r="F1876" s="6" t="s">
-        <v>2166</v>
-      </c>
-      <c r="G1876" s="1" t="s">
-        <v>2167</v>
-      </c>
+      <c r="F1876" s="6"/>
       <c r="H1876" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1876" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="I1876" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1877" s="1" t="n">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C1877" s="1"/>
       <c r="D1877" s="1" t="n">
-        <v>1067</v>
-      </c>
-      <c r="F1877" s="6"/>
+        <v>1068</v>
+      </c>
+      <c r="F1877" s="6" t="s">
+        <v>2167</v>
+      </c>
+      <c r="G1877" s="1" t="s">
+        <v>2168</v>
+      </c>
       <c r="H1877" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1877" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1877" s="10"/>
     </row>
     <row r="1878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1878" s="1" t="n">
@@ -40373,32 +40373,32 @@
       <c r="D1878" s="1" t="n">
         <v>1068</v>
       </c>
-      <c r="F1878" s="6" t="s">
-        <v>2168</v>
-      </c>
-      <c r="G1878" s="1" t="s">
-        <v>2169</v>
-      </c>
+      <c r="F1878" s="6"/>
       <c r="H1878" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1878" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1878" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1879" s="1" t="n">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C1879" s="1"/>
       <c r="D1879" s="1" t="n">
-        <v>1068</v>
-      </c>
-      <c r="F1879" s="6"/>
+        <v>1069</v>
+      </c>
+      <c r="F1879" s="6" t="s">
+        <v>2169</v>
+      </c>
+      <c r="G1879" s="1" t="s">
+        <v>2170</v>
+      </c>
       <c r="H1879" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1879" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L1879" s="10"/>
     </row>
     <row r="1880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1880" s="1" t="n">
@@ -40408,32 +40408,32 @@
       <c r="D1880" s="1" t="n">
         <v>1069</v>
       </c>
-      <c r="F1880" s="6" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G1880" s="1" t="s">
-        <v>2171</v>
-      </c>
+      <c r="F1880" s="6"/>
       <c r="H1880" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1880" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="I1880" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1881" s="1" t="n">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C1881" s="1"/>
       <c r="D1881" s="1" t="n">
-        <v>1069</v>
-      </c>
-      <c r="F1881" s="6"/>
+        <v>1070</v>
+      </c>
+      <c r="F1881" s="6" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G1881" s="1" t="s">
+        <v>2172</v>
+      </c>
       <c r="H1881" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1881" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L1881" s="10"/>
     </row>
     <row r="1882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1882" s="1" t="n">
@@ -40443,32 +40443,32 @@
       <c r="D1882" s="1" t="n">
         <v>1070</v>
       </c>
-      <c r="F1882" s="6" t="s">
-        <v>2172</v>
-      </c>
-      <c r="G1882" s="1" t="s">
-        <v>2173</v>
-      </c>
+      <c r="F1882" s="6"/>
       <c r="H1882" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1882" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="I1882" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1883" s="1" t="n">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C1883" s="1"/>
       <c r="D1883" s="1" t="n">
-        <v>1070</v>
-      </c>
-      <c r="F1883" s="6"/>
+        <v>1071</v>
+      </c>
+      <c r="F1883" s="6" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G1883" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="H1883" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1883" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L1883" s="10"/>
     </row>
     <row r="1884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1884" s="1" t="n">
@@ -40478,32 +40478,32 @@
       <c r="D1884" s="1" t="n">
         <v>1071</v>
       </c>
-      <c r="F1884" s="6" t="s">
-        <v>2174</v>
-      </c>
-      <c r="G1884" s="1" t="s">
-        <v>2175</v>
-      </c>
+      <c r="F1884" s="6"/>
       <c r="H1884" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1884" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="I1884" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1885" s="1" t="n">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C1885" s="1"/>
       <c r="D1885" s="1" t="n">
-        <v>1071</v>
-      </c>
-      <c r="F1885" s="6"/>
+        <v>1072</v>
+      </c>
+      <c r="F1885" s="6" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G1885" s="1" t="s">
+        <v>2176</v>
+      </c>
       <c r="H1885" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1885" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L1885" s="10"/>
     </row>
     <row r="1886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1886" s="1" t="n">
@@ -40513,32 +40513,32 @@
       <c r="D1886" s="1" t="n">
         <v>1072</v>
       </c>
-      <c r="F1886" s="6" t="s">
-        <v>2176</v>
-      </c>
-      <c r="G1886" s="1" t="s">
-        <v>2177</v>
-      </c>
+      <c r="F1886" s="6"/>
       <c r="H1886" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1886" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="I1886" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1887" s="1" t="n">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C1887" s="1"/>
       <c r="D1887" s="1" t="n">
-        <v>1072</v>
-      </c>
-      <c r="F1887" s="6"/>
+        <v>1073</v>
+      </c>
+      <c r="F1887" s="6" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G1887" s="1" t="s">
+        <v>2178</v>
+      </c>
       <c r="H1887" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I1887" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="L1887" s="10"/>
     </row>
     <row r="1888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1888" s="1" t="n">
@@ -40548,32 +40548,32 @@
       <c r="D1888" s="1" t="n">
         <v>1073</v>
       </c>
-      <c r="F1888" s="6" t="s">
-        <v>2178</v>
-      </c>
-      <c r="G1888" s="1" t="s">
-        <v>2179</v>
-      </c>
+      <c r="F1888" s="6"/>
       <c r="H1888" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1888" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="I1888" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1889" s="1" t="n">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C1889" s="1"/>
       <c r="D1889" s="1" t="n">
-        <v>1073</v>
-      </c>
-      <c r="F1889" s="6"/>
+        <v>1074</v>
+      </c>
+      <c r="F1889" s="6" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G1889" s="1" t="s">
+        <v>2180</v>
+      </c>
       <c r="H1889" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1889" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1889" s="10"/>
     </row>
     <row r="1890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1890" s="1" t="n">
@@ -40583,32 +40583,32 @@
       <c r="D1890" s="1" t="n">
         <v>1074</v>
       </c>
-      <c r="F1890" s="6" t="s">
-        <v>2180</v>
-      </c>
-      <c r="G1890" s="1" t="s">
-        <v>2181</v>
-      </c>
+      <c r="F1890" s="6"/>
       <c r="H1890" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1890" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1890" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1891" s="1" t="n">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C1891" s="1"/>
       <c r="D1891" s="1" t="n">
-        <v>1074</v>
-      </c>
-      <c r="F1891" s="6"/>
+        <v>1075</v>
+      </c>
+      <c r="F1891" s="6" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G1891" s="1" t="s">
+        <v>2182</v>
+      </c>
       <c r="H1891" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1891" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1891" s="10"/>
     </row>
     <row r="1892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1892" s="1" t="n">
@@ -40618,32 +40618,32 @@
       <c r="D1892" s="1" t="n">
         <v>1075</v>
       </c>
-      <c r="F1892" s="6" t="s">
-        <v>2182</v>
-      </c>
-      <c r="G1892" s="1" t="s">
-        <v>2183</v>
-      </c>
+      <c r="F1892" s="6"/>
       <c r="H1892" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1892" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1892" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1893" s="1" t="n">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C1893" s="1"/>
       <c r="D1893" s="1" t="n">
-        <v>1075</v>
-      </c>
-      <c r="F1893" s="6"/>
+        <v>1076</v>
+      </c>
+      <c r="F1893" s="6" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G1893" s="1" t="s">
+        <v>2184</v>
+      </c>
       <c r="H1893" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1893" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1893" s="10"/>
     </row>
     <row r="1894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1894" s="1" t="n">
@@ -40653,32 +40653,32 @@
       <c r="D1894" s="1" t="n">
         <v>1076</v>
       </c>
-      <c r="F1894" s="6" t="s">
-        <v>2184</v>
-      </c>
-      <c r="G1894" s="1" t="s">
-        <v>2185</v>
-      </c>
+      <c r="F1894" s="6"/>
       <c r="H1894" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1894" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1894" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1895" s="1" t="n">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C1895" s="1"/>
       <c r="D1895" s="1" t="n">
-        <v>1076</v>
-      </c>
-      <c r="F1895" s="6"/>
+        <v>1077</v>
+      </c>
+      <c r="F1895" s="6" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G1895" s="1" t="s">
+        <v>2186</v>
+      </c>
       <c r="H1895" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1895" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1895" s="10"/>
     </row>
     <row r="1896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1896" s="1" t="n">
@@ -40688,32 +40688,32 @@
       <c r="D1896" s="1" t="n">
         <v>1077</v>
       </c>
-      <c r="F1896" s="6" t="s">
-        <v>2186</v>
-      </c>
-      <c r="G1896" s="1" t="s">
-        <v>2187</v>
-      </c>
+      <c r="F1896" s="6"/>
       <c r="H1896" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1896" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1896" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1897" s="1" t="n">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C1897" s="1"/>
       <c r="D1897" s="1" t="n">
-        <v>1077</v>
-      </c>
-      <c r="F1897" s="6"/>
+        <v>1078</v>
+      </c>
+      <c r="F1897" s="6" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G1897" s="1" t="s">
+        <v>2188</v>
+      </c>
       <c r="H1897" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1897" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1897" s="10"/>
     </row>
     <row r="1898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1898" s="1" t="n">
@@ -40723,32 +40723,33 @@
       <c r="D1898" s="1" t="n">
         <v>1078</v>
       </c>
-      <c r="F1898" s="6" t="s">
-        <v>2188</v>
-      </c>
-      <c r="G1898" s="1" t="s">
-        <v>2189</v>
-      </c>
+      <c r="F1898" s="6"/>
       <c r="H1898" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1898" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1898" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1899" s="1" t="n">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C1899" s="1"/>
       <c r="D1899" s="1" t="n">
-        <v>1078</v>
-      </c>
-      <c r="F1899" s="6"/>
+        <v>1079</v>
+      </c>
+      <c r="F1899" s="6" t="s">
+        <v>2189</v>
+      </c>
+      <c r="G1899" s="1" t="s">
+        <v>2190</v>
+      </c>
       <c r="H1899" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1899" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="L1899" s="10"/>
+      <c r="AC1899" s="9"/>
     </row>
     <row r="1900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1900" s="1" t="n">
@@ -40758,33 +40759,32 @@
       <c r="D1900" s="1" t="n">
         <v>1079</v>
       </c>
-      <c r="F1900" s="6" t="s">
-        <v>2190</v>
-      </c>
-      <c r="G1900" s="1" t="s">
-        <v>2191</v>
-      </c>
+      <c r="F1900" s="6"/>
       <c r="H1900" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1900" s="10"/>
-      <c r="AC1900" s="9"/>
+        <v>117</v>
+      </c>
+      <c r="I1900" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1901" s="1" t="n">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C1901" s="1"/>
       <c r="D1901" s="1" t="n">
-        <v>1079</v>
-      </c>
-      <c r="F1901" s="6"/>
+        <v>1080</v>
+      </c>
+      <c r="F1901" s="6" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G1901" s="1" t="s">
+        <v>2192</v>
+      </c>
       <c r="H1901" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1901" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="L1901" s="10"/>
     </row>
     <row r="1902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1902" s="1" t="n">
@@ -40794,33 +40794,32 @@
       <c r="D1902" s="1" t="n">
         <v>1080</v>
       </c>
-      <c r="F1902" s="6" t="s">
-        <v>2192</v>
-      </c>
-      <c r="G1902" s="1" t="s">
-        <v>2193</v>
-      </c>
+      <c r="F1902" s="6"/>
       <c r="H1902" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="I1902" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1902" s="10"/>
     </row>
     <row r="1903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1903" s="1" t="n">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C1903" s="1"/>
       <c r="D1903" s="1" t="n">
-        <v>1080</v>
-      </c>
-      <c r="F1903" s="6"/>
+        <v>1081</v>
+      </c>
+      <c r="F1903" s="6" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G1903" s="1" t="s">
+        <v>2194</v>
+      </c>
       <c r="H1903" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1903" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1903" s="10"/>
+        <v>118</v>
+      </c>
     </row>
     <row r="1904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1904" s="1" t="n">
@@ -40830,33 +40829,34 @@
       <c r="D1904" s="1" t="n">
         <v>1081</v>
       </c>
-      <c r="F1904" s="6" t="s">
-        <v>2194</v>
-      </c>
-      <c r="G1904" s="1" t="s">
-        <v>2195</v>
-      </c>
+      <c r="F1904" s="6"/>
       <c r="H1904" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="I1904" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1904" s="10"/>
+      <c r="AC1904" s="9"/>
     </row>
     <row r="1905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1905" s="1" t="n">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C1905" s="1"/>
       <c r="D1905" s="1" t="n">
-        <v>1081</v>
-      </c>
-      <c r="F1905" s="6"/>
+        <v>1082</v>
+      </c>
+      <c r="F1905" s="6" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G1905" s="1" t="s">
+        <v>2196</v>
+      </c>
       <c r="H1905" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1905" s="1" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="L1905" s="10"/>
-      <c r="AC1905" s="9"/>
     </row>
     <row r="1906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1906" s="1" t="n">
@@ -40866,33 +40866,34 @@
       <c r="D1906" s="1" t="n">
         <v>1082</v>
       </c>
-      <c r="F1906" s="6" t="s">
-        <v>2196</v>
-      </c>
-      <c r="G1906" s="1" t="s">
-        <v>2197</v>
-      </c>
+      <c r="F1906" s="6"/>
       <c r="H1906" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="I1906" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1906" s="10"/>
     </row>
     <row r="1907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1907" s="1" t="n">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C1907" s="1"/>
       <c r="D1907" s="1" t="n">
-        <v>1082</v>
-      </c>
-      <c r="F1907" s="6"/>
+        <v>1083</v>
+      </c>
+      <c r="F1907" s="6" t="s">
+        <v>2197</v>
+      </c>
+      <c r="G1907" s="1" t="s">
+        <v>2198</v>
+      </c>
       <c r="H1907" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I1907" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="L1907" s="10"/>
+      <c r="AC1907" s="9"/>
     </row>
     <row r="1908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1908" s="1" t="n">
@@ -40902,34 +40903,34 @@
       <c r="D1908" s="1" t="n">
         <v>1083</v>
       </c>
-      <c r="F1908" s="6" t="s">
-        <v>2198</v>
-      </c>
-      <c r="G1908" s="1" t="s">
-        <v>2199</v>
-      </c>
+      <c r="F1908" s="6"/>
       <c r="H1908" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="I1908" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1908" s="10"/>
-      <c r="AC1908" s="9"/>
     </row>
     <row r="1909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1909" s="1" t="n">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C1909" s="1"/>
       <c r="D1909" s="1" t="n">
-        <v>1083</v>
-      </c>
-      <c r="F1909" s="6"/>
+        <v>1084</v>
+      </c>
+      <c r="F1909" s="6" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G1909" s="1" t="s">
+        <v>2200</v>
+      </c>
       <c r="H1909" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I1909" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="L1909" s="10"/>
+      <c r="AC1909" s="9"/>
     </row>
     <row r="1910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1910" s="1" t="n">
@@ -40939,32 +40940,31 @@
       <c r="D1910" s="1" t="n">
         <v>1084</v>
       </c>
-      <c r="F1910" s="6" t="s">
-        <v>2200</v>
-      </c>
-      <c r="G1910" s="1" t="s">
-        <v>2201</v>
-      </c>
+      <c r="F1910" s="6"/>
       <c r="H1910" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="I1910" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1910" s="10"/>
-      <c r="AC1910" s="9"/>
     </row>
     <row r="1911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1911" s="1" t="n">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C1911" s="1"/>
       <c r="D1911" s="1" t="n">
-        <v>1084</v>
-      </c>
-      <c r="F1911" s="6"/>
+        <v>1085</v>
+      </c>
+      <c r="F1911" s="6" t="s">
+        <v>2201</v>
+      </c>
+      <c r="G1911" s="1" t="s">
+        <v>2202</v>
+      </c>
       <c r="H1911" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1911" s="1" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="L1911" s="10"/>
     </row>
@@ -40976,32 +40976,32 @@
       <c r="D1912" s="1" t="n">
         <v>1085</v>
       </c>
-      <c r="F1912" s="6" t="s">
-        <v>2202</v>
-      </c>
-      <c r="G1912" s="1" t="s">
-        <v>2203</v>
-      </c>
+      <c r="F1912" s="6"/>
       <c r="H1912" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1912" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="I1912" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1913" s="1" t="n">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C1913" s="1"/>
       <c r="D1913" s="1" t="n">
-        <v>1085</v>
-      </c>
-      <c r="F1913" s="6"/>
+        <v>1086</v>
+      </c>
+      <c r="F1913" s="6" t="s">
+        <v>2203</v>
+      </c>
+      <c r="G1913" s="1" t="s">
+        <v>2204</v>
+      </c>
       <c r="H1913" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1913" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="L1913" s="10"/>
     </row>
     <row r="1914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1914" s="1" t="n">
@@ -41011,32 +41011,32 @@
       <c r="D1914" s="1" t="n">
         <v>1086</v>
       </c>
-      <c r="F1914" s="6" t="s">
-        <v>2204</v>
-      </c>
-      <c r="G1914" s="1" t="s">
-        <v>2205</v>
-      </c>
+      <c r="F1914" s="6"/>
       <c r="H1914" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1914" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="I1914" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1915" s="1" t="n">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C1915" s="1"/>
       <c r="D1915" s="1" t="n">
-        <v>1086</v>
-      </c>
-      <c r="F1915" s="6"/>
+        <v>1087</v>
+      </c>
+      <c r="F1915" s="6" t="s">
+        <v>2205</v>
+      </c>
+      <c r="G1915" s="1" t="s">
+        <v>2206</v>
+      </c>
       <c r="H1915" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1915" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1915" s="10"/>
     </row>
     <row r="1916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1916" s="1" t="n">
@@ -41046,32 +41046,32 @@
       <c r="D1916" s="1" t="n">
         <v>1087</v>
       </c>
-      <c r="F1916" s="6" t="s">
-        <v>2206</v>
-      </c>
-      <c r="G1916" s="1" t="s">
-        <v>2207</v>
-      </c>
+      <c r="F1916" s="6"/>
       <c r="H1916" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1916" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1916" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1917" s="1" t="n">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C1917" s="1"/>
       <c r="D1917" s="1" t="n">
-        <v>1087</v>
-      </c>
-      <c r="F1917" s="6"/>
+        <v>1088</v>
+      </c>
+      <c r="F1917" s="6" t="s">
+        <v>2207</v>
+      </c>
+      <c r="G1917" s="1" t="s">
+        <v>2208</v>
+      </c>
       <c r="H1917" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1917" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1917" s="10"/>
     </row>
     <row r="1918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1918" s="1" t="n">
@@ -41081,32 +41081,32 @@
       <c r="D1918" s="1" t="n">
         <v>1088</v>
       </c>
-      <c r="F1918" s="6" t="s">
-        <v>2208</v>
-      </c>
-      <c r="G1918" s="1" t="s">
-        <v>2209</v>
-      </c>
+      <c r="F1918" s="6"/>
       <c r="H1918" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1918" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1918" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1919" s="1" t="n">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C1919" s="1"/>
       <c r="D1919" s="1" t="n">
-        <v>1088</v>
-      </c>
-      <c r="F1919" s="6"/>
+        <v>1089</v>
+      </c>
+      <c r="F1919" s="6" t="s">
+        <v>2209</v>
+      </c>
+      <c r="G1919" s="1" t="s">
+        <v>2210</v>
+      </c>
       <c r="H1919" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1919" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1919" s="10"/>
     </row>
     <row r="1920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1920" s="1" t="n">
@@ -41116,32 +41116,32 @@
       <c r="D1920" s="1" t="n">
         <v>1089</v>
       </c>
-      <c r="F1920" s="6" t="s">
-        <v>2210</v>
-      </c>
-      <c r="G1920" s="1" t="s">
-        <v>2211</v>
-      </c>
+      <c r="F1920" s="6"/>
       <c r="H1920" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1920" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1920" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1921" s="1" t="n">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C1921" s="1"/>
       <c r="D1921" s="1" t="n">
-        <v>1089</v>
-      </c>
-      <c r="F1921" s="6"/>
+        <v>1090</v>
+      </c>
+      <c r="F1921" s="6" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G1921" s="1" t="s">
+        <v>2212</v>
+      </c>
       <c r="H1921" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1921" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1921" s="10"/>
     </row>
     <row r="1922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1922" s="1" t="n">
@@ -41151,16 +41151,13 @@
       <c r="D1922" s="1" t="n">
         <v>1090</v>
       </c>
-      <c r="F1922" s="6" t="s">
-        <v>2212</v>
-      </c>
-      <c r="G1922" s="1" t="s">
-        <v>2213</v>
-      </c>
+      <c r="F1922" s="6"/>
       <c r="H1922" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1922" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1922" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1923" s="1" t="n">
@@ -41172,7 +41169,7 @@
       </c>
       <c r="F1923" s="6"/>
       <c r="H1923" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I1923" s="1" t="s">
         <v>8</v>
@@ -41180,19 +41177,22 @@
     </row>
     <row r="1924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1924" s="1" t="n">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C1924" s="1"/>
       <c r="D1924" s="1" t="n">
-        <v>1090</v>
-      </c>
-      <c r="F1924" s="6"/>
+        <v>1091</v>
+      </c>
+      <c r="F1924" s="6" t="s">
+        <v>2213</v>
+      </c>
+      <c r="G1924" s="1" t="s">
+        <v>2214</v>
+      </c>
       <c r="H1924" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1924" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1924" s="10"/>
     </row>
     <row r="1925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1925" s="1" t="n">
@@ -41202,16 +41202,13 @@
       <c r="D1925" s="1" t="n">
         <v>1091</v>
       </c>
-      <c r="F1925" s="6" t="s">
-        <v>2214</v>
-      </c>
-      <c r="G1925" s="1" t="s">
-        <v>2215</v>
-      </c>
+      <c r="F1925" s="6"/>
       <c r="H1925" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1925" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1925" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1926" s="1" t="n">
@@ -41223,7 +41220,7 @@
       </c>
       <c r="F1926" s="6"/>
       <c r="H1926" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I1926" s="1" t="s">
         <v>8</v>
@@ -41231,19 +41228,22 @@
     </row>
     <row r="1927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1927" s="1" t="n">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C1927" s="1"/>
       <c r="D1927" s="1" t="n">
-        <v>1091</v>
-      </c>
-      <c r="F1927" s="6"/>
+        <v>1092</v>
+      </c>
+      <c r="F1927" s="6" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G1927" s="1" t="s">
+        <v>2216</v>
+      </c>
       <c r="H1927" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1927" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1927" s="10"/>
     </row>
     <row r="1928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1928" s="1" t="n">
@@ -41253,32 +41253,32 @@
       <c r="D1928" s="1" t="n">
         <v>1092</v>
       </c>
-      <c r="F1928" s="6" t="s">
-        <v>2216</v>
-      </c>
-      <c r="G1928" s="1" t="s">
-        <v>2217</v>
-      </c>
+      <c r="F1928" s="6"/>
       <c r="H1928" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1928" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1928" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1929" s="1" t="n">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C1929" s="1"/>
       <c r="D1929" s="1" t="n">
-        <v>1092</v>
-      </c>
-      <c r="F1929" s="6"/>
+        <v>1093</v>
+      </c>
+      <c r="F1929" s="6" t="s">
+        <v>2217</v>
+      </c>
+      <c r="G1929" s="1" t="s">
+        <v>2218</v>
+      </c>
       <c r="H1929" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1929" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1929" s="10"/>
     </row>
     <row r="1930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1930" s="1" t="n">
@@ -41288,32 +41288,32 @@
       <c r="D1930" s="1" t="n">
         <v>1093</v>
       </c>
-      <c r="F1930" s="6" t="s">
-        <v>2218</v>
-      </c>
-      <c r="G1930" s="1" t="s">
-        <v>2219</v>
-      </c>
+      <c r="F1930" s="6"/>
       <c r="H1930" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1930" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1930" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1931" s="1" t="n">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C1931" s="1"/>
       <c r="D1931" s="1" t="n">
-        <v>1093</v>
-      </c>
-      <c r="F1931" s="6"/>
+        <v>1094</v>
+      </c>
+      <c r="F1931" s="6" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G1931" s="1" t="s">
+        <v>2220</v>
+      </c>
       <c r="H1931" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1931" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1931" s="10"/>
     </row>
     <row r="1932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1932" s="1" t="n">
@@ -41323,32 +41323,33 @@
       <c r="D1932" s="1" t="n">
         <v>1094</v>
       </c>
-      <c r="F1932" s="6" t="s">
-        <v>2220</v>
-      </c>
-      <c r="G1932" s="1" t="s">
-        <v>2221</v>
-      </c>
+      <c r="F1932" s="6"/>
       <c r="H1932" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1932" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1932" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1933" s="1" t="n">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C1933" s="1"/>
       <c r="D1933" s="1" t="n">
-        <v>1094</v>
-      </c>
-      <c r="F1933" s="6"/>
+        <v>1095</v>
+      </c>
+      <c r="F1933" s="6" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G1933" s="1" t="s">
+        <v>2222</v>
+      </c>
       <c r="H1933" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1933" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1933" s="10"/>
+      <c r="AC1933" s="9"/>
     </row>
     <row r="1934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1934" s="1" t="n">
@@ -41358,33 +41359,32 @@
       <c r="D1934" s="1" t="n">
         <v>1095</v>
       </c>
-      <c r="F1934" s="6" t="s">
-        <v>2222</v>
-      </c>
-      <c r="G1934" s="1" t="s">
-        <v>2223</v>
-      </c>
+      <c r="F1934" s="6"/>
       <c r="H1934" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1934" s="10"/>
-      <c r="AC1934" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="I1934" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1935" s="1" t="n">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C1935" s="1"/>
       <c r="D1935" s="1" t="n">
-        <v>1095</v>
-      </c>
-      <c r="F1935" s="6"/>
+        <v>1096</v>
+      </c>
+      <c r="F1935" s="6" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G1935" s="1" t="s">
+        <v>2224</v>
+      </c>
       <c r="H1935" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1935" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1935" s="10"/>
     </row>
     <row r="1936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1936" s="1" t="n">
@@ -41394,32 +41394,32 @@
       <c r="D1936" s="1" t="n">
         <v>1096</v>
       </c>
-      <c r="F1936" s="6" t="s">
-        <v>2224</v>
-      </c>
-      <c r="G1936" s="1" t="s">
-        <v>2225</v>
-      </c>
+      <c r="F1936" s="6"/>
       <c r="H1936" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1936" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1936" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1937" s="1" t="n">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C1937" s="1"/>
       <c r="D1937" s="1" t="n">
-        <v>1096</v>
-      </c>
-      <c r="F1937" s="6"/>
+        <v>1097</v>
+      </c>
+      <c r="F1937" s="6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G1937" s="1" t="s">
+        <v>2226</v>
+      </c>
       <c r="H1937" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1937" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1937" s="10"/>
     </row>
     <row r="1938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1938" s="1" t="n">
@@ -41429,32 +41429,32 @@
       <c r="D1938" s="1" t="n">
         <v>1097</v>
       </c>
-      <c r="F1938" s="6" t="s">
-        <v>2226</v>
-      </c>
-      <c r="G1938" s="1" t="s">
-        <v>2227</v>
-      </c>
+      <c r="F1938" s="6"/>
       <c r="H1938" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1938" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1938" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1939" s="1" t="n">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C1939" s="1"/>
       <c r="D1939" s="1" t="n">
-        <v>1097</v>
-      </c>
-      <c r="F1939" s="6"/>
+        <v>1098</v>
+      </c>
+      <c r="F1939" s="6" t="s">
+        <v>2227</v>
+      </c>
+      <c r="G1939" s="1" t="s">
+        <v>2228</v>
+      </c>
       <c r="H1939" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1939" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1939" s="10"/>
     </row>
     <row r="1940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1940" s="1" t="n">
@@ -41464,32 +41464,32 @@
       <c r="D1940" s="1" t="n">
         <v>1098</v>
       </c>
-      <c r="F1940" s="6" t="s">
-        <v>2228</v>
-      </c>
-      <c r="G1940" s="1" t="s">
-        <v>2229</v>
-      </c>
+      <c r="F1940" s="6"/>
       <c r="H1940" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1940" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1940" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1941" s="1" t="n">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C1941" s="1"/>
       <c r="D1941" s="1" t="n">
-        <v>1098</v>
-      </c>
-      <c r="F1941" s="6"/>
+        <v>1099</v>
+      </c>
+      <c r="F1941" s="6" t="s">
+        <v>2229</v>
+      </c>
+      <c r="G1941" s="1" t="s">
+        <v>2230</v>
+      </c>
       <c r="H1941" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1941" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="L1941" s="10"/>
     </row>
     <row r="1942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1942" s="1" t="n">
@@ -41499,33 +41499,34 @@
       <c r="D1942" s="1" t="n">
         <v>1099</v>
       </c>
-      <c r="F1942" s="6" t="s">
-        <v>2230</v>
-      </c>
-      <c r="G1942" s="1" t="s">
-        <v>2231</v>
-      </c>
+      <c r="F1942" s="6"/>
       <c r="H1942" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="I1942" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1942" s="10"/>
     </row>
     <row r="1943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1943" s="1" t="n">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C1943" s="1"/>
       <c r="D1943" s="1" t="n">
-        <v>1099</v>
-      </c>
-      <c r="F1943" s="6"/>
+        <v>1100</v>
+      </c>
+      <c r="F1943" s="6" t="s">
+        <v>2231</v>
+      </c>
+      <c r="G1943" s="1" t="s">
+        <v>2232</v>
+      </c>
       <c r="H1943" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I1943" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="L1943" s="10"/>
+      <c r="AC1943" s="9"/>
     </row>
     <row r="1944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1944" s="1" t="n">
@@ -41535,32 +41536,31 @@
       <c r="D1944" s="1" t="n">
         <v>1100</v>
       </c>
-      <c r="F1944" s="6" t="s">
-        <v>2232</v>
-      </c>
-      <c r="G1944" s="1" t="s">
-        <v>2233</v>
-      </c>
+      <c r="F1944" s="6"/>
       <c r="H1944" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="I1944" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1944" s="10"/>
-      <c r="AC1944" s="9"/>
     </row>
     <row r="1945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1945" s="1" t="n">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C1945" s="1"/>
       <c r="D1945" s="1" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F1945" s="6"/>
+        <v>1101</v>
+      </c>
+      <c r="F1945" s="6" t="s">
+        <v>2233</v>
+      </c>
+      <c r="G1945" s="1" t="s">
+        <v>2234</v>
+      </c>
       <c r="H1945" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1945" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="L1945" s="10"/>
     </row>
@@ -41572,32 +41572,35 @@
       <c r="D1946" s="1" t="n">
         <v>1101</v>
       </c>
-      <c r="F1946" s="6" t="s">
-        <v>2234</v>
-      </c>
-      <c r="G1946" s="1" t="s">
-        <v>2235</v>
-      </c>
+      <c r="F1946" s="6"/>
       <c r="H1946" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1946" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1946" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1947" s="1" t="n">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C1947" s="1"/>
       <c r="D1947" s="1" t="n">
-        <v>1101</v>
-      </c>
-      <c r="F1947" s="6"/>
+        <v>1102</v>
+      </c>
+      <c r="F1947" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G1947" s="1" t="s">
+        <v>2236</v>
+      </c>
       <c r="H1947" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1947" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J1947" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1947" s="10"/>
     </row>
     <row r="1948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1948" s="1" t="n">
@@ -41607,38 +41610,36 @@
       <c r="D1948" s="1" t="n">
         <v>1102</v>
       </c>
-      <c r="F1948" s="6" t="s">
-        <v>2236</v>
-      </c>
-      <c r="G1948" s="1" t="s">
-        <v>2237</v>
-      </c>
+      <c r="F1948" s="6"/>
       <c r="H1948" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="I1948" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="J1948" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1948" s="10"/>
     </row>
     <row r="1949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1949" s="1" t="n">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C1949" s="1"/>
       <c r="D1949" s="1" t="n">
-        <v>1102</v>
-      </c>
-      <c r="F1949" s="6"/>
+        <v>1103</v>
+      </c>
+      <c r="F1949" s="6" t="s">
+        <v>2237</v>
+      </c>
+      <c r="G1949" s="1" t="s">
+        <v>2238</v>
+      </c>
       <c r="H1949" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1949" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1949" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1949" s="10"/>
+      <c r="AC1949" s="9"/>
     </row>
     <row r="1950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1950" s="1" t="n">
@@ -41648,33 +41649,32 @@
       <c r="D1950" s="1" t="n">
         <v>1103</v>
       </c>
-      <c r="F1950" s="6" t="s">
-        <v>2238</v>
-      </c>
-      <c r="G1950" s="1" t="s">
-        <v>2239</v>
-      </c>
+      <c r="F1950" s="6"/>
       <c r="H1950" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1950" s="10"/>
-      <c r="AC1950" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="I1950" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1951" s="1" t="n">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C1951" s="1"/>
       <c r="D1951" s="1" t="n">
-        <v>1103</v>
-      </c>
-      <c r="F1951" s="6"/>
+        <v>1104</v>
+      </c>
+      <c r="F1951" s="6" t="s">
+        <v>2239</v>
+      </c>
+      <c r="G1951" s="1" t="s">
+        <v>2240</v>
+      </c>
       <c r="H1951" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1951" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1951" s="10"/>
     </row>
     <row r="1952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1952" s="1" t="n">
@@ -41684,32 +41684,32 @@
       <c r="D1952" s="1" t="n">
         <v>1104</v>
       </c>
-      <c r="F1952" s="6" t="s">
-        <v>2240</v>
-      </c>
-      <c r="G1952" s="1" t="s">
-        <v>2241</v>
-      </c>
+      <c r="F1952" s="6"/>
       <c r="H1952" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1952" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1952" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1953" s="1" t="n">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C1953" s="1"/>
       <c r="D1953" s="1" t="n">
-        <v>1104</v>
-      </c>
-      <c r="F1953" s="6"/>
+        <v>1105</v>
+      </c>
+      <c r="F1953" s="6" t="s">
+        <v>2241</v>
+      </c>
+      <c r="G1953" s="1" t="s">
+        <v>2242</v>
+      </c>
       <c r="H1953" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1953" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1953" s="10"/>
     </row>
     <row r="1954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1954" s="1" t="n">
@@ -41719,32 +41719,32 @@
       <c r="D1954" s="1" t="n">
         <v>1105</v>
       </c>
-      <c r="F1954" s="6" t="s">
-        <v>2242</v>
-      </c>
-      <c r="G1954" s="1" t="s">
-        <v>2243</v>
-      </c>
+      <c r="F1954" s="6"/>
       <c r="H1954" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1954" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1954" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1955" s="1" t="n">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C1955" s="1"/>
       <c r="D1955" s="1" t="n">
-        <v>1105</v>
-      </c>
-      <c r="F1955" s="6"/>
+        <v>1106</v>
+      </c>
+      <c r="F1955" s="6" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G1955" s="1" t="s">
+        <v>2244</v>
+      </c>
       <c r="H1955" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1955" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1955" s="10"/>
     </row>
     <row r="1956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1956" s="1" t="n">
@@ -41754,32 +41754,33 @@
       <c r="D1956" s="1" t="n">
         <v>1106</v>
       </c>
-      <c r="F1956" s="6" t="s">
-        <v>2244</v>
-      </c>
-      <c r="G1956" s="1" t="s">
-        <v>2245</v>
-      </c>
+      <c r="F1956" s="6"/>
       <c r="H1956" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1956" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1956" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1957" s="1" t="n">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C1957" s="1"/>
       <c r="D1957" s="1" t="n">
-        <v>1106</v>
-      </c>
-      <c r="F1957" s="6"/>
+        <v>1107</v>
+      </c>
+      <c r="F1957" s="6" t="s">
+        <v>2245</v>
+      </c>
+      <c r="G1957" s="1" t="s">
+        <v>2246</v>
+      </c>
       <c r="H1957" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1957" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1957" s="10"/>
+      <c r="AC1957" s="9"/>
     </row>
     <row r="1958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1958" s="1" t="n">
@@ -41789,35 +41790,34 @@
       <c r="D1958" s="1" t="n">
         <v>1107</v>
       </c>
-      <c r="F1958" s="6" t="s">
-        <v>2246</v>
-      </c>
-      <c r="G1958" s="1" t="s">
-        <v>2247</v>
-      </c>
+      <c r="F1958" s="6"/>
       <c r="H1958" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="I1958" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1958" s="10"/>
       <c r="AC1958" s="9"/>
     </row>
     <row r="1959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1959" s="1" t="n">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C1959" s="1"/>
       <c r="D1959" s="1" t="n">
-        <v>1107</v>
-      </c>
-      <c r="F1959" s="6"/>
+        <v>1108</v>
+      </c>
+      <c r="F1959" s="6" t="s">
+        <v>2247</v>
+      </c>
+      <c r="G1959" s="1" t="s">
+        <v>2248</v>
+      </c>
       <c r="H1959" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1959" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="L1959" s="10"/>
-      <c r="AC1959" s="9"/>
     </row>
     <row r="1960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1960" s="1" t="n">
@@ -41827,32 +41827,32 @@
       <c r="D1960" s="1" t="n">
         <v>1108</v>
       </c>
-      <c r="F1960" s="6" t="s">
-        <v>2248</v>
-      </c>
-      <c r="G1960" s="1" t="s">
-        <v>2249</v>
-      </c>
+      <c r="F1960" s="6"/>
       <c r="H1960" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1960" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1960" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1961" s="1" t="n">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C1961" s="1"/>
       <c r="D1961" s="1" t="n">
-        <v>1108</v>
-      </c>
-      <c r="F1961" s="6"/>
+        <v>1109</v>
+      </c>
+      <c r="F1961" s="6" t="s">
+        <v>2249</v>
+      </c>
+      <c r="G1961" s="1" t="s">
+        <v>2250</v>
+      </c>
       <c r="H1961" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1961" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1961" s="10"/>
     </row>
     <row r="1962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1962" s="1" t="n">
@@ -41862,32 +41862,32 @@
       <c r="D1962" s="1" t="n">
         <v>1109</v>
       </c>
-      <c r="F1962" s="6" t="s">
-        <v>2250</v>
-      </c>
-      <c r="G1962" s="1" t="s">
-        <v>2251</v>
-      </c>
+      <c r="F1962" s="6"/>
       <c r="H1962" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1962" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1962" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1963" s="1" t="n">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C1963" s="1"/>
       <c r="D1963" s="1" t="n">
-        <v>1109</v>
-      </c>
-      <c r="F1963" s="6"/>
+        <v>1110</v>
+      </c>
+      <c r="F1963" s="6" t="s">
+        <v>2251</v>
+      </c>
+      <c r="G1963" s="1" t="s">
+        <v>2252</v>
+      </c>
       <c r="H1963" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1963" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1963" s="10"/>
     </row>
     <row r="1964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1964" s="1" t="n">
@@ -41897,32 +41897,33 @@
       <c r="D1964" s="1" t="n">
         <v>1110</v>
       </c>
-      <c r="F1964" s="6" t="s">
-        <v>2252</v>
-      </c>
-      <c r="G1964" s="1" t="s">
-        <v>2253</v>
-      </c>
+      <c r="F1964" s="6"/>
       <c r="H1964" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1964" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1964" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1965" s="1" t="n">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C1965" s="1"/>
       <c r="D1965" s="1" t="n">
-        <v>1110</v>
-      </c>
-      <c r="F1965" s="6"/>
+        <v>1111</v>
+      </c>
+      <c r="F1965" s="6" t="s">
+        <v>2253</v>
+      </c>
+      <c r="G1965" s="1" t="s">
+        <v>2254</v>
+      </c>
       <c r="H1965" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1965" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1965" s="10"/>
+      <c r="AC1965" s="9"/>
     </row>
     <row r="1966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1966" s="1" t="n">
@@ -41932,33 +41933,32 @@
       <c r="D1966" s="1" t="n">
         <v>1111</v>
       </c>
-      <c r="F1966" s="6" t="s">
-        <v>2254</v>
-      </c>
-      <c r="G1966" s="1" t="s">
-        <v>2255</v>
-      </c>
+      <c r="F1966" s="6"/>
       <c r="H1966" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1966" s="10"/>
-      <c r="AC1966" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="I1966" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1967" s="1" t="n">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C1967" s="1"/>
       <c r="D1967" s="1" t="n">
-        <v>1111</v>
-      </c>
-      <c r="F1967" s="6"/>
+        <v>1112</v>
+      </c>
+      <c r="F1967" s="6" t="s">
+        <v>2255</v>
+      </c>
+      <c r="G1967" s="1" t="s">
+        <v>2256</v>
+      </c>
       <c r="H1967" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1967" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L1967" s="10"/>
     </row>
     <row r="1968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1968" s="1" t="n">
@@ -41968,31 +41968,31 @@
       <c r="D1968" s="1" t="n">
         <v>1112</v>
       </c>
-      <c r="F1968" s="6" t="s">
-        <v>2256</v>
-      </c>
-      <c r="G1968" s="1" t="s">
-        <v>2257</v>
-      </c>
+      <c r="F1968" s="6"/>
       <c r="H1968" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="I1968" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1968" s="10"/>
     </row>
     <row r="1969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1969" s="1" t="n">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C1969" s="1"/>
       <c r="D1969" s="1" t="n">
-        <v>1112</v>
-      </c>
-      <c r="F1969" s="6"/>
+        <v>1113</v>
+      </c>
+      <c r="F1969" s="6" t="s">
+        <v>2257</v>
+      </c>
+      <c r="G1969" s="1" t="s">
+        <v>2258</v>
+      </c>
       <c r="H1969" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="I1969" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="L1969" s="10"/>
     </row>
@@ -42004,31 +42004,31 @@
       <c r="D1970" s="1" t="n">
         <v>1113</v>
       </c>
-      <c r="F1970" s="6" t="s">
-        <v>2258</v>
-      </c>
-      <c r="G1970" s="1" t="s">
-        <v>2259</v>
-      </c>
+      <c r="F1970" s="6"/>
       <c r="H1970" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="I1970" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1970" s="10"/>
     </row>
     <row r="1971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1971" s="1" t="n">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C1971" s="1"/>
       <c r="D1971" s="1" t="n">
-        <v>1113</v>
-      </c>
-      <c r="F1971" s="6"/>
+        <v>1114</v>
+      </c>
+      <c r="F1971" s="6" t="s">
+        <v>2259</v>
+      </c>
+      <c r="G1971" s="1" t="s">
+        <v>2260</v>
+      </c>
       <c r="H1971" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1971" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="L1971" s="10"/>
     </row>
@@ -42040,32 +42040,32 @@
       <c r="D1972" s="1" t="n">
         <v>1114</v>
       </c>
-      <c r="F1972" s="6" t="s">
-        <v>2260</v>
-      </c>
-      <c r="G1972" s="1" t="s">
-        <v>2261</v>
-      </c>
+      <c r="F1972" s="6"/>
       <c r="H1972" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1972" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1972" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1973" s="1" t="n">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C1973" s="1"/>
       <c r="D1973" s="1" t="n">
-        <v>1114</v>
-      </c>
-      <c r="F1973" s="6"/>
+        <v>1115</v>
+      </c>
+      <c r="F1973" s="6" t="s">
+        <v>2261</v>
+      </c>
+      <c r="G1973" s="1" t="s">
+        <v>2262</v>
+      </c>
       <c r="H1973" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1973" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="L1973" s="10"/>
     </row>
     <row r="1974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1974" s="1" t="n">
@@ -42075,32 +42075,33 @@
       <c r="D1974" s="1" t="n">
         <v>1115</v>
       </c>
-      <c r="F1974" s="6" t="s">
-        <v>2262</v>
-      </c>
-      <c r="G1974" s="1" t="s">
-        <v>2263</v>
-      </c>
+      <c r="F1974" s="6"/>
       <c r="H1974" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1974" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="I1974" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1975" s="1" t="n">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C1975" s="1"/>
       <c r="D1975" s="1" t="n">
-        <v>1115</v>
-      </c>
-      <c r="F1975" s="6"/>
+        <v>1116</v>
+      </c>
+      <c r="F1975" s="6" t="s">
+        <v>2263</v>
+      </c>
+      <c r="G1975" s="1" t="s">
+        <v>2264</v>
+      </c>
       <c r="H1975" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1975" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1975" s="10"/>
+      <c r="AC1975" s="9"/>
     </row>
     <row r="1976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1976" s="1" t="n">
@@ -42110,33 +42111,32 @@
       <c r="D1976" s="1" t="n">
         <v>1116</v>
       </c>
-      <c r="F1976" s="6" t="s">
-        <v>2264</v>
-      </c>
-      <c r="G1976" s="1" t="s">
-        <v>2265</v>
-      </c>
+      <c r="F1976" s="6"/>
       <c r="H1976" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1976" s="10"/>
-      <c r="AC1976" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="I1976" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1977" s="1" t="n">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C1977" s="1"/>
       <c r="D1977" s="1" t="n">
-        <v>1116</v>
-      </c>
-      <c r="F1977" s="6"/>
+        <v>1117</v>
+      </c>
+      <c r="F1977" s="6" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G1977" s="1" t="s">
+        <v>2266</v>
+      </c>
       <c r="H1977" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1977" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1977" s="10"/>
     </row>
     <row r="1978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1978" s="1" t="n">
@@ -42146,32 +42146,32 @@
       <c r="D1978" s="1" t="n">
         <v>1117</v>
       </c>
-      <c r="F1978" s="6" t="s">
-        <v>2266</v>
-      </c>
-      <c r="G1978" s="1" t="s">
-        <v>2267</v>
-      </c>
+      <c r="F1978" s="6"/>
       <c r="H1978" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1978" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1978" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1979" s="1" t="n">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C1979" s="1"/>
       <c r="D1979" s="1" t="n">
-        <v>1117</v>
-      </c>
-      <c r="F1979" s="6"/>
+        <v>1118</v>
+      </c>
+      <c r="F1979" s="6" t="s">
+        <v>2267</v>
+      </c>
+      <c r="G1979" s="1" t="s">
+        <v>2268</v>
+      </c>
       <c r="H1979" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1979" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1979" s="10"/>
     </row>
     <row r="1980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1980" s="1" t="n">
@@ -42181,32 +42181,32 @@
       <c r="D1980" s="1" t="n">
         <v>1118</v>
       </c>
-      <c r="F1980" s="6" t="s">
-        <v>2268</v>
-      </c>
-      <c r="G1980" s="1" t="s">
-        <v>2269</v>
-      </c>
+      <c r="F1980" s="6"/>
       <c r="H1980" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1980" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1980" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1981" s="1" t="n">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C1981" s="1"/>
       <c r="D1981" s="1" t="n">
-        <v>1118</v>
-      </c>
-      <c r="F1981" s="6"/>
+        <v>1119</v>
+      </c>
+      <c r="F1981" s="6" t="s">
+        <v>2269</v>
+      </c>
+      <c r="G1981" s="1" t="s">
+        <v>2270</v>
+      </c>
       <c r="H1981" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1981" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="L1981" s="10"/>
     </row>
     <row r="1982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1982" s="1" t="n">
@@ -42216,32 +42216,32 @@
       <c r="D1982" s="1" t="n">
         <v>1119</v>
       </c>
-      <c r="F1982" s="6" t="s">
-        <v>2270</v>
-      </c>
-      <c r="G1982" s="1" t="s">
-        <v>2271</v>
-      </c>
+      <c r="F1982" s="6"/>
       <c r="H1982" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1982" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="I1982" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1983" s="1" t="n">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C1983" s="1"/>
       <c r="D1983" s="1" t="n">
-        <v>1119</v>
-      </c>
-      <c r="F1983" s="6"/>
+        <v>1120</v>
+      </c>
+      <c r="F1983" s="6" t="s">
+        <v>2271</v>
+      </c>
+      <c r="G1983" s="1" t="s">
+        <v>2272</v>
+      </c>
       <c r="H1983" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1983" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L1983" s="10"/>
     </row>
     <row r="1984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1984" s="1" t="n">
@@ -42251,31 +42251,30 @@
       <c r="D1984" s="1" t="n">
         <v>1120</v>
       </c>
-      <c r="F1984" s="6" t="s">
-        <v>2272</v>
-      </c>
-      <c r="G1984" s="1" t="s">
-        <v>2273</v>
-      </c>
+      <c r="F1984" s="6"/>
       <c r="H1984" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1984" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="I1984" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1985" s="1" t="n">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C1985" s="1"/>
       <c r="D1985" s="1" t="n">
-        <v>1120</v>
-      </c>
-      <c r="F1985" s="6"/>
+        <v>1121</v>
+      </c>
+      <c r="F1985" s="6" t="s">
+        <v>2273</v>
+      </c>
+      <c r="G1985" s="1" t="s">
+        <v>2274</v>
+      </c>
       <c r="H1985" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1985" s="1" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -42286,30 +42285,31 @@
       <c r="D1986" s="1" t="n">
         <v>1121</v>
       </c>
-      <c r="F1986" s="6" t="s">
-        <v>2274</v>
-      </c>
-      <c r="G1986" s="1" t="s">
-        <v>2275</v>
-      </c>
+      <c r="F1986" s="6"/>
       <c r="H1986" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="I1986" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1986" s="10"/>
     </row>
     <row r="1987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1987" s="1" t="n">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C1987" s="1"/>
       <c r="D1987" s="1" t="n">
-        <v>1121</v>
-      </c>
-      <c r="F1987" s="6"/>
+        <v>1122</v>
+      </c>
+      <c r="F1987" s="6" t="s">
+        <v>2275</v>
+      </c>
+      <c r="G1987" s="1" t="s">
+        <v>2276</v>
+      </c>
       <c r="H1987" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1987" s="1" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="L1987" s="10"/>
     </row>
@@ -42321,32 +42321,33 @@
       <c r="D1988" s="1" t="n">
         <v>1122</v>
       </c>
-      <c r="F1988" s="6" t="s">
-        <v>2276</v>
-      </c>
-      <c r="G1988" s="1" t="s">
-        <v>2277</v>
-      </c>
+      <c r="F1988" s="6"/>
       <c r="H1988" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1988" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="I1988" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1989" s="1" t="n">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C1989" s="1"/>
       <c r="D1989" s="1" t="n">
-        <v>1122</v>
-      </c>
-      <c r="F1989" s="6"/>
+        <v>1123</v>
+      </c>
+      <c r="F1989" s="6" t="s">
+        <v>2277</v>
+      </c>
+      <c r="G1989" s="1" t="s">
+        <v>2278</v>
+      </c>
       <c r="H1989" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I1989" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="L1989" s="10"/>
+      <c r="AC1989" s="9"/>
     </row>
     <row r="1990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1990" s="1" t="n">
@@ -42356,34 +42357,32 @@
       <c r="D1990" s="1" t="n">
         <v>1123</v>
       </c>
-      <c r="F1990" s="6" t="s">
-        <v>2278</v>
-      </c>
-      <c r="G1990" s="1" t="s">
-        <v>2279</v>
-      </c>
+      <c r="F1990" s="6"/>
       <c r="H1990" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="I1990" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="L1990" s="10"/>
-      <c r="AC1990" s="9"/>
     </row>
     <row r="1991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1991" s="1" t="n">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C1991" s="1"/>
       <c r="D1991" s="1" t="n">
-        <v>1123</v>
-      </c>
-      <c r="F1991" s="6"/>
+        <v>1124</v>
+      </c>
+      <c r="F1991" s="6" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G1991" s="1" t="s">
+        <v>2280</v>
+      </c>
       <c r="H1991" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1991" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1991" s="10"/>
+        <v>117</v>
+      </c>
     </row>
     <row r="1992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1992" s="1" t="n">
@@ -42393,32 +42392,37 @@
       <c r="D1992" s="1" t="n">
         <v>1124</v>
       </c>
-      <c r="F1992" s="6" t="s">
-        <v>2280</v>
-      </c>
-      <c r="G1992" s="1" t="s">
-        <v>2281</v>
-      </c>
+      <c r="F1992" s="6"/>
       <c r="H1992" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="I1992" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1992" s="10"/>
     </row>
     <row r="1993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1993" s="1" t="n">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C1993" s="1"/>
       <c r="D1993" s="1" t="n">
-        <v>1124</v>
-      </c>
-      <c r="F1993" s="6"/>
+        <v>1125</v>
+      </c>
+      <c r="F1993" s="6" t="s">
+        <v>2281</v>
+      </c>
+      <c r="G1993" s="1" t="s">
+        <v>2282</v>
+      </c>
       <c r="H1993" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I1993" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1993" s="10"/>
+      <c r="L1993" s="0"/>
+      <c r="M1993" s="0"/>
+      <c r="N1993" s="0"/>
+      <c r="P1993" s="0"/>
+      <c r="AC1993" s="9"/>
     </row>
     <row r="1994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1994" s="1" t="n">
@@ -42428,35 +42432,33 @@
       <c r="D1994" s="1" t="n">
         <v>1125</v>
       </c>
-      <c r="F1994" s="6" t="s">
-        <v>2282</v>
-      </c>
-      <c r="G1994" s="1" t="s">
-        <v>2283</v>
-      </c>
+      <c r="F1994" s="6"/>
       <c r="H1994" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1994" s="0"/>
-      <c r="M1994" s="0"/>
-      <c r="N1994" s="0"/>
-      <c r="P1994" s="0"/>
-      <c r="AC1994" s="9"/>
+        <v>117</v>
+      </c>
+      <c r="I1994" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1995" s="1" t="n">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C1995" s="1"/>
       <c r="D1995" s="1" t="n">
-        <v>1125</v>
-      </c>
-      <c r="F1995" s="6"/>
+        <v>1126</v>
+      </c>
+      <c r="F1995" s="6" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G1995" s="1" t="s">
+        <v>2284</v>
+      </c>
       <c r="H1995" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1995" s="1" t="s">
-        <v>8</v>
+        <v>118</v>
+      </c>
+      <c r="J1995" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -42467,14 +42469,12 @@
       <c r="D1996" s="1" t="n">
         <v>1126</v>
       </c>
-      <c r="F1996" s="6" t="s">
-        <v>2284</v>
-      </c>
-      <c r="G1996" s="1" t="s">
-        <v>2285</v>
-      </c>
+      <c r="F1996" s="6"/>
       <c r="H1996" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="I1996" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="J1996" s="1" t="s">
         <v>9</v>
@@ -42482,22 +42482,22 @@
     </row>
     <row r="1997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1997" s="1" t="n">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C1997" s="1"/>
       <c r="D1997" s="1" t="n">
-        <v>1126</v>
-      </c>
-      <c r="F1997" s="6"/>
+        <v>1127</v>
+      </c>
+      <c r="F1997" s="6" t="s">
+        <v>2285</v>
+      </c>
+      <c r="G1997" s="1" t="s">
+        <v>2286</v>
+      </c>
       <c r="H1997" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I1997" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1997" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="L1997" s="10"/>
     </row>
     <row r="1998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1998" s="1" t="n">
@@ -42507,32 +42507,32 @@
       <c r="D1998" s="1" t="n">
         <v>1127</v>
       </c>
-      <c r="F1998" s="6" t="s">
-        <v>2286</v>
-      </c>
-      <c r="G1998" s="1" t="s">
-        <v>2287</v>
-      </c>
+      <c r="F1998" s="6"/>
       <c r="H1998" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1998" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="I1998" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1999" s="1" t="n">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C1999" s="1"/>
       <c r="D1999" s="1" t="n">
-        <v>1127</v>
-      </c>
-      <c r="F1999" s="6"/>
+        <v>1128</v>
+      </c>
+      <c r="F1999" s="6" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G1999" s="1" t="s">
+        <v>2288</v>
+      </c>
       <c r="H1999" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1999" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L1999" s="10"/>
     </row>
     <row r="2000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2000" s="1" t="n">
@@ -42542,67 +42542,68 @@
       <c r="D2000" s="1" t="n">
         <v>1128</v>
       </c>
-      <c r="F2000" s="6" t="s">
-        <v>2288</v>
-      </c>
-      <c r="G2000" s="1" t="s">
-        <v>2289</v>
-      </c>
+      <c r="F2000" s="6"/>
       <c r="H2000" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2000" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="I2000" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2001" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2001" s="1" t="n">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C2001" s="1"/>
       <c r="D2001" s="1" t="n">
-        <v>1128</v>
-      </c>
-      <c r="F2001" s="6"/>
+        <v>1129</v>
+      </c>
+      <c r="F2001" s="6" t="s">
+        <v>2289</v>
+      </c>
+      <c r="G2001" s="1" t="s">
+        <v>2290</v>
+      </c>
       <c r="H2001" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2001" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L2001" s="10"/>
+      <c r="AC2001" s="9"/>
     </row>
     <row r="2002" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2002" s="1" t="n">
-        <v>1129</v>
+      <c r="B2002" s="0" t="n">
+        <v>1130</v>
       </c>
       <c r="C2002" s="1"/>
-      <c r="D2002" s="1" t="n">
-        <v>1129</v>
-      </c>
-      <c r="F2002" s="6" t="s">
-        <v>2290</v>
-      </c>
-      <c r="G2002" s="1" t="s">
+      <c r="D2002" s="0" t="n">
+        <v>1130</v>
+      </c>
+      <c r="E2002" s="0"/>
+      <c r="F2002" s="0" t="s">
         <v>2291</v>
       </c>
-      <c r="H2002" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2002" s="10"/>
-      <c r="AC2002" s="9"/>
+      <c r="G2002" s="0" t="s">
+        <v>2292</v>
+      </c>
+      <c r="H2002" s="0"/>
+      <c r="I2002" s="0"/>
+      <c r="J2002" s="0"/>
+      <c r="K2002" s="0"/>
     </row>
     <row r="2003" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2003" s="0" t="n">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C2003" s="1"/>
       <c r="D2003" s="0" t="n">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="E2003" s="0"/>
       <c r="F2003" s="0" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="G2003" s="0" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="H2003" s="0"/>
       <c r="I2003" s="0"/>
@@ -42611,43 +42612,33 @@
     </row>
     <row r="2004" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2004" s="0" t="n">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C2004" s="1"/>
       <c r="D2004" s="0" t="n">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E2004" s="0"/>
       <c r="F2004" s="0" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="G2004" s="0" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="H2004" s="0"/>
       <c r="I2004" s="0"/>
       <c r="J2004" s="0"/>
       <c r="K2004" s="0"/>
     </row>
-    <row r="2005" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2005" s="0" t="n">
-        <v>1132</v>
-      </c>
-      <c r="C2005" s="1"/>
-      <c r="D2005" s="0" t="n">
-        <v>1132</v>
-      </c>
-      <c r="E2005" s="0"/>
-      <c r="F2005" s="0" t="s">
-        <v>2296</v>
-      </c>
-      <c r="G2005" s="0" t="s">
-        <v>2297</v>
-      </c>
-      <c r="H2005" s="0"/>
-      <c r="I2005" s="0"/>
-      <c r="J2005" s="0"/>
-      <c r="K2005" s="0"/>
+    <row r="2006" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D2006" s="0"/>
+      <c r="E2006" s="0"/>
+      <c r="F2006" s="0"/>
+      <c r="G2006" s="0"/>
+      <c r="H2006" s="0"/>
+      <c r="I2006" s="0"/>
+      <c r="J2006" s="0"/>
+      <c r="K2006" s="0"/>
     </row>
     <row r="2007" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D2007" s="0"/>
@@ -42659,18 +42650,8 @@
       <c r="J2007" s="0"/>
       <c r="K2007" s="0"/>
     </row>
-    <row r="2008" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2008" s="0"/>
-      <c r="E2008" s="0"/>
-      <c r="F2008" s="0"/>
-      <c r="G2008" s="0"/>
-      <c r="H2008" s="0"/>
-      <c r="I2008" s="0"/>
-      <c r="J2008" s="0"/>
-      <c r="K2008" s="0"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:AD2005"/>
+  <autoFilter ref="B1:K2004"/>
   <conditionalFormatting sqref="D1:IO1">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(D1))&gt;0</formula>
